--- a/Covid_19_Dataset_and_References/References/104.xlsx
+++ b/Covid_19_Dataset_and_References/References/104.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="108">
   <si>
     <t>Doi</t>
   </si>
@@ -430,6 +430,36 @@
   </si>
   <si>
     <t>[Daniel%Fernández%NULL%1,   Iago%Giné-Vázquez%NULL%1,   Ivy%Liu%NULL%1,   Recai%Yucel%NULL%1,   Marta%Nai Ruscone%NULL%1,   Marianthi%Morena%NULL%1,   Víctor Gerardo%García%NULL%1,   Josep Maria%Haro%NULL%1,   William%Pan%NULL%1,   Stefanos%Tyrovolas%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Novel coronavirus (SARS-CoV-2) causing COVID-19 disease has arisen to be a pandemic.
+ Since there is a close association between other viral infection cases by epidemics and environmental factors, this study intends to unveil meteorological effects on the outbreak of COVID-19 across eight divisions of Bangladesh from March to April 2020. A compound Poisson generalized linear modeling (CPGLM), along with a Monte-Carlo method and random forest (RF) model, was employed to explore how meteorological factors affecting the COVID-19 transmission in Bangladesh.
+ Results showed that subtropical climate (mean temperature about 26.6 °C, mean relative humidity (MRH) 64%, and rainfall approximately 3 mm) enhanced COVD-19 onset.
+ The CPGLM model revealed that every 1 mm increase in rainfall elevated by 30.99% (95% CI 77.18%, − 15.20%) COVID-19 cases, while an increase of 1 °C of diurnal temperature (TDN) declined the confirmed cases by − 14.2% (95% CI 9.73%, − 38.13%) on the lag 1 and lag 2, respectively.
+ In addition, NRH and MRH had the highest increase (17.98% (95% CI 22.5%, 13.42%) and 19.92% (95% CI: 25.71%, 14.13%)) of COVID-19 cased in lag 4. The results of the RF model indicated that TDN and AH (absolute humidity) influence the COVID-19 cases most.
+ In the Dhaka division, MRH is the most vital meteorological factor that affects COVID-19 deaths.
+ This study indicates the humidity and rainfall are crucial factors affecting the COVID-19 case, which is contrary to many previous studies in other countries.
+ These outcomes can have policy formulation for the suppression of the COVID-19 outbreak in Bangladesh.
+</t>
+  </si>
+  <si>
+    <t>[Abu Reza Md. Towfiqul%Islam%towfiq_dm@brur.ac.bd%1,    Md.%Hasanuzzaman%NULL%2,    Md.%Hasanuzzaman%NULL%0,    Mashura%Shammi%NULL%1,    Roquia%Salam%NULL%1,    Md.%Bodrud-Doza%NULL%1,    Md. Mostafizur%Rahman%rahmanmm@juniv.edu%1,    Md. Abdul%Mannan%NULL%1,    Saleemul%Huq%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The emergence of coronavirus disease 2019 (COVID-19) has become a worldwide pandemic after its first outbreak in Wuhan, China.
+ However, it remains unclear whether COVID-19 death is linked to ambient air pollutants or meteorological conditions.
+ We collected the daily COVID-19 death number, air quality index (AQI), ambient air pollutant concentrations, and meteorological variables data of Wuhan between Jan 25 and April 7, 2020. The Pearson and Poisson regression models were used accordingly to understand the association between COVID-19 deaths and each risk factor.
+ The daily COVID-19 deaths were positively correlated with AQI (slope = 0.4 ± 0.09, R2 = 0.24, p &amp;lt; 0.01).
+ Detailedly, PM2.5 was the only pollutant exhibiting a positive association (relative risk (RR) = 1.079, 95%CI 1.071–1.086, p &amp;lt; 0.01) with COVID-19 deaths.
+ The PM10, SO2, and CO were all also significantly associated with COVID-19 deaths, but in negative pattern (p &amp;lt; 0.01).
+ Among them, PM10 and CO had the highest and lowest RR, which equaled to 0.952 (95%CI 0.945–0.959) and 0.177 (95%CI 0.131–0.24), respectively.
+ Additionally, temperature was inversely associated with COVID-19 deaths (RR = 0.861, 95%CI 0.851–0.872, p &amp;lt; 0.01).
+ Contrarily, diurnal temperature range was positively associated with COVID-19 deaths (RR = 1.014, 95%CI 1.003–1.025, p &amp;lt; 0.05).
+ The data suggested that PM2.5 and diurnal temperature range are tightly associated with increased COVID-19 deaths.
+</t>
+  </si>
+  <si>
+    <t>[Ying%Jiang%yjiang1@vt.edu%1,    Jing%Xu%xujingjingalpha@sohu.com%0]</t>
   </si>
 </sst>
 </file>
@@ -928,10 +958,10 @@
         <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="E8" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -954,10 +984,10 @@
         <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="E9" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>

--- a/Covid_19_Dataset_and_References/References/104.xlsx
+++ b/Covid_19_Dataset_and_References/References/104.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="104">
   <si>
     <t>Doi</t>
   </si>
@@ -430,36 +430,6 @@
   </si>
   <si>
     <t>[Daniel%Fernández%NULL%1,   Iago%Giné-Vázquez%NULL%1,   Ivy%Liu%NULL%1,   Recai%Yucel%NULL%1,   Marta%Nai Ruscone%NULL%1,   Marianthi%Morena%NULL%1,   Víctor Gerardo%García%NULL%1,   Josep Maria%Haro%NULL%1,   William%Pan%NULL%1,   Stefanos%Tyrovolas%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Novel coronavirus (SARS-CoV-2) causing COVID-19 disease has arisen to be a pandemic.
- Since there is a close association between other viral infection cases by epidemics and environmental factors, this study intends to unveil meteorological effects on the outbreak of COVID-19 across eight divisions of Bangladesh from March to April 2020. A compound Poisson generalized linear modeling (CPGLM), along with a Monte-Carlo method and random forest (RF) model, was employed to explore how meteorological factors affecting the COVID-19 transmission in Bangladesh.
- Results showed that subtropical climate (mean temperature about 26.6 °C, mean relative humidity (MRH) 64%, and rainfall approximately 3 mm) enhanced COVD-19 onset.
- The CPGLM model revealed that every 1 mm increase in rainfall elevated by 30.99% (95% CI 77.18%, − 15.20%) COVID-19 cases, while an increase of 1 °C of diurnal temperature (TDN) declined the confirmed cases by − 14.2% (95% CI 9.73%, − 38.13%) on the lag 1 and lag 2, respectively.
- In addition, NRH and MRH had the highest increase (17.98% (95% CI 22.5%, 13.42%) and 19.92% (95% CI: 25.71%, 14.13%)) of COVID-19 cased in lag 4. The results of the RF model indicated that TDN and AH (absolute humidity) influence the COVID-19 cases most.
- In the Dhaka division, MRH is the most vital meteorological factor that affects COVID-19 deaths.
- This study indicates the humidity and rainfall are crucial factors affecting the COVID-19 case, which is contrary to many previous studies in other countries.
- These outcomes can have policy formulation for the suppression of the COVID-19 outbreak in Bangladesh.
-</t>
-  </si>
-  <si>
-    <t>[Abu Reza Md. Towfiqul%Islam%towfiq_dm@brur.ac.bd%1,    Md.%Hasanuzzaman%NULL%2,    Md.%Hasanuzzaman%NULL%0,    Mashura%Shammi%NULL%1,    Roquia%Salam%NULL%1,    Md.%Bodrud-Doza%NULL%1,    Md. Mostafizur%Rahman%rahmanmm@juniv.edu%1,    Md. Abdul%Mannan%NULL%1,    Saleemul%Huq%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The emergence of coronavirus disease 2019 (COVID-19) has become a worldwide pandemic after its first outbreak in Wuhan, China.
- However, it remains unclear whether COVID-19 death is linked to ambient air pollutants or meteorological conditions.
- We collected the daily COVID-19 death number, air quality index (AQI), ambient air pollutant concentrations, and meteorological variables data of Wuhan between Jan 25 and April 7, 2020. The Pearson and Poisson regression models were used accordingly to understand the association between COVID-19 deaths and each risk factor.
- The daily COVID-19 deaths were positively correlated with AQI (slope = 0.4 ± 0.09, R2 = 0.24, p &amp;lt; 0.01).
- Detailedly, PM2.5 was the only pollutant exhibiting a positive association (relative risk (RR) = 1.079, 95%CI 1.071–1.086, p &amp;lt; 0.01) with COVID-19 deaths.
- The PM10, SO2, and CO were all also significantly associated with COVID-19 deaths, but in negative pattern (p &amp;lt; 0.01).
- Among them, PM10 and CO had the highest and lowest RR, which equaled to 0.952 (95%CI 0.945–0.959) and 0.177 (95%CI 0.131–0.24), respectively.
- Additionally, temperature was inversely associated with COVID-19 deaths (RR = 0.861, 95%CI 0.851–0.872, p &amp;lt; 0.01).
- Contrarily, diurnal temperature range was positively associated with COVID-19 deaths (RR = 1.014, 95%CI 1.003–1.025, p &amp;lt; 0.05).
- The data suggested that PM2.5 and diurnal temperature range are tightly associated with increased COVID-19 deaths.
-</t>
-  </si>
-  <si>
-    <t>[Ying%Jiang%yjiang1@vt.edu%1,    Jing%Xu%xujingjingalpha@sohu.com%0]</t>
   </si>
 </sst>
 </file>
@@ -958,10 +928,10 @@
         <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -984,10 +954,10 @@
         <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>

--- a/Covid_19_Dataset_and_References/References/104.xlsx
+++ b/Covid_19_Dataset_and_References/References/104.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="120">
   <si>
     <t>Doi</t>
   </si>
@@ -430,6 +430,54 @@
   </si>
   <si>
     <t>[Daniel%Fernández%NULL%1,   Iago%Giné-Vázquez%NULL%1,   Ivy%Liu%NULL%1,   Recai%Yucel%NULL%1,   Marta%Nai Ruscone%NULL%1,   Marianthi%Morena%NULL%1,   Víctor Gerardo%García%NULL%1,   Josep Maria%Haro%NULL%1,   William%Pan%NULL%1,   Stefanos%Tyrovolas%NULL%1]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Yueling%Ma%NULL%1,    Yadong%Zhao%NULL%1,    Jiangtao%Liu%NULL%1,    Xiaotao%He%NULL%1,    Bo%Wang%NULL%0,    Shihua%Fu%NULL%1,    Jun%Yan%NULL%1,    Jingping%Niu%NULL%1,    Ji%Zhou%NULL%1,    Bin%Luo%luob@lzu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Marcos Felipe Falcão%Sobral%NULL%1,    Gisleia Benini%Duarte%NULL%1,    Ana Iza Gomes%da Penha Sobral%NULL%1,    Marcelo Luiz Monteiro%Marinho%NULL%1,    André%de Souza Melo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dai%Su%NULL%1,    Yingchun%Chen%NULL%1,    Kevin%He%NULL%1,    Tao%Zhang%NULL%0,    Min%Tan%NULL%1,    Yunfan%Zhang%NULL%1,    Xingyu%Zhang%NULL%1,     D.%Su%null%1,     Y.% Chen%null%0,     K.% He%null%1,     T.% Zhang%null%1,     M.% Tan%null%1,     Y.% Zhang%null%1,     X. % Zhang%null%1,  D.%Su%null%1,  Y.% Chen%null%1,  K.% He%null%1,  T.% Zhang%null%1,  M.% Tan%null%1,  Y.% Zhang%null%1,  X. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>medrxiv/biorxiv doi</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Yu%Wu%NULL%1,    Wenzhan%Jing%NULL%1,    Jue%Liu%NULL%1,    Qiuyue%Ma%NULL%1,    Jie%Yuan%NULL%1,    Yaping%Wang%NULL%1,    Min%Du%NULL%1,    Min%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yasir%Rehman%NULL%1,    Nadia%Rehman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cui%Guo%NULL%1,    Yacong%Bo%NULL%1,    Changqing%Lin%NULL%1,    Hao Bi%Li%NULL%1,    Yiqian%Zeng%NULL%1,    Yumiao%Zhang%NULL%1,    Md Shakhaoat%Hossain%NULL%1,    Jimmy W.M.%Chan%NULL%1,    David W.%Yeung%NULL%1,    Kin-on%Kwok%NULL%1,    Samuel Y.S.%Wong%NULL%1,    Alexis K.H.%Lau%NULL%1,    Xiang Qian%Lao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abu Reza Md. Towfiqul%Islam%towfiq_dm@brur.ac.bd%1,    Md.%Hasanuzzaman%NULL%2,    Md.%Hasanuzzaman%NULL%0,    Mashura%Shammi%NULL%1,    Roquia%Salam%NULL%1,    Md.%Bodrud-Doza%NULL%1,    Md. Mostafizur%Rahman%rahmanmm@juniv.edu%1,    Md. Abdul%Mannan%NULL%1,    Saleemul%Huq%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Ying%Jiang%yjiang1@vt.edu%1,    Jing%Xu%xujingjingalpha@sohu.com%0]</t>
+  </si>
+  <si>
+    <t>[Yeran%Sun%NULL%1,    Xuke%Hu%NULL%1,    Jing%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ploutarchos%Tzampoglou%NULL%1,    Dimitrios%Loukidis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel%Fernández%NULL%1,    Iago%Giné-Vázquez%NULL%1,    Ivy%Liu%NULL%1,    Recai%Yucel%NULL%1,    Marta%Nai Ruscone%NULL%1,    Marianthi%Morena%NULL%1,    Víctor Gerardo%García%NULL%1,    Josep Maria%Haro%NULL%1,    William%Pan%NULL%1,    Stefanos%Tyrovolas%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -760,6 +808,9 @@
       <c r="H1" t="s">
         <v>25</v>
       </c>
+      <c r="I1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -775,7 +826,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -785,6 +836,9 @@
       </c>
       <c r="H2" t="s">
         <v>31</v>
+      </c>
+      <c r="I2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="3">
@@ -801,7 +855,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -811,6 +865,9 @@
       </c>
       <c r="H3" t="s">
         <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="4">
@@ -827,16 +884,19 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="H4" t="s">
         <v>41</v>
+      </c>
+      <c r="I4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="5">
@@ -853,7 +913,7 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="F5" t="s">
         <v>45</v>
@@ -863,6 +923,9 @@
       </c>
       <c r="H5" t="s">
         <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="6">
@@ -879,7 +942,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -889,6 +952,9 @@
       </c>
       <c r="H6" t="s">
         <v>51</v>
+      </c>
+      <c r="I6" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="7">
@@ -905,7 +971,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -915,6 +981,9 @@
       </c>
       <c r="H7" t="s">
         <v>56</v>
+      </c>
+      <c r="I7" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="8">
@@ -931,7 +1000,7 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -941,6 +1010,9 @@
       </c>
       <c r="H8" t="s">
         <v>61</v>
+      </c>
+      <c r="I8" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="9">
@@ -957,7 +1029,7 @@
         <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -967,6 +1039,9 @@
       </c>
       <c r="H9" t="s">
         <v>66</v>
+      </c>
+      <c r="I9" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="10">
@@ -983,7 +1058,7 @@
         <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -993,6 +1068,9 @@
       </c>
       <c r="H10" t="s">
         <v>71</v>
+      </c>
+      <c r="I10" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="11">
@@ -1009,7 +1087,7 @@
         <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="F11" t="s">
         <v>75</v>
@@ -1019,6 +1097,9 @@
       </c>
       <c r="H11" t="s">
         <v>76</v>
+      </c>
+      <c r="I11" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="12">
@@ -1035,7 +1116,7 @@
         <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="F12" t="s">
         <v>80</v>
@@ -1045,6 +1126,9 @@
       </c>
       <c r="H12" t="s">
         <v>81</v>
+      </c>
+      <c r="I12" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/104.xlsx
+++ b/Covid_19_Dataset_and_References/References/104.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="153">
   <si>
     <t>Doi</t>
   </si>
@@ -478,6 +478,105 @@
   </si>
   <si>
     <t>[Daniel%Fernández%NULL%1,    Iago%Giné-Vázquez%NULL%1,    Ivy%Liu%NULL%1,    Recai%Yucel%NULL%1,    Marta%Nai Ruscone%NULL%1,    Marianthi%Morena%NULL%1,    Víctor Gerardo%García%NULL%1,    Josep Maria%Haro%NULL%1,    William%Pan%NULL%1,    Stefanos%Tyrovolas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yueling%Ma%NULL%1,     Yadong%Zhao%NULL%1,     Jiangtao%Liu%NULL%1,     Xiaotao%He%NULL%1,     Bo%Wang%NULL%0,     Shihua%Fu%NULL%1,     Jun%Yan%NULL%1,     Jingping%Niu%NULL%1,     Ji%Zhou%NULL%1,     Bin%Luo%luob@lzu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Marcos Felipe Falcão%Sobral%NULL%1,     Gisleia Benini%Duarte%NULL%1,     Ana Iza Gomes%da Penha Sobral%NULL%1,     Marcelo Luiz Monteiro%Marinho%NULL%1,     André%de Souza Melo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dai%Su%NULL%1,     Yingchun%Chen%NULL%1,     Kevin%He%NULL%1,     Tao%Zhang%NULL%0,     Min%Tan%NULL%1,     Yunfan%Zhang%NULL%1,     Xingyu%Zhang%NULL%1,      D.%Su%null%1,      Y.% Chen%null%0,      K.% He%null%1,      T.% Zhang%null%1,      M.% Tan%null%1,      Y.% Zhang%null%1,      X. % Zhang%null%1,   D.%Su%null%1,   Y.% Chen%null%1,   K.% He%null%1,   T.% Zhang%null%1,   M.% Tan%null%1,   Y.% Zhang%null%1,   X. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Yu%Wu%NULL%1,     Wenzhan%Jing%NULL%1,     Jue%Liu%NULL%1,     Qiuyue%Ma%NULL%1,     Jie%Yuan%NULL%1,     Yaping%Wang%NULL%1,     Min%Du%NULL%1,     Min%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yasir%Rehman%NULL%1,     Nadia%Rehman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cui%Guo%NULL%1,     Yacong%Bo%NULL%1,     Changqing%Lin%NULL%1,     Hao Bi%Li%NULL%1,     Yiqian%Zeng%NULL%1,     Yumiao%Zhang%NULL%1,     Md Shakhaoat%Hossain%NULL%1,     Jimmy W.M.%Chan%NULL%1,     David W.%Yeung%NULL%1,     Kin-on%Kwok%NULL%1,     Samuel Y.S.%Wong%NULL%1,     Alexis K.H.%Lau%NULL%1,     Xiang Qian%Lao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abu Reza Md. Towfiqul%Islam%towfiq_dm@brur.ac.bd%1,     Md.%Hasanuzzaman%NULL%2,     Md.%Hasanuzzaman%NULL%0,     Mashura%Shammi%NULL%1,     Roquia%Salam%NULL%1,     Md.%Bodrud-Doza%NULL%1,     Md. Mostafizur%Rahman%rahmanmm@juniv.edu%1,     Md. Abdul%Mannan%NULL%1,     Saleemul%Huq%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Jiang%yjiang1@vt.edu%1,     Jing%Xu%xujingjingalpha@sohu.com%0]</t>
+  </si>
+  <si>
+    <t>[Yeran%Sun%NULL%1,     Xuke%Hu%NULL%1,     Jing%Xie%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ploutarchos%Tzampoglou%NULL%1,     Dimitrios%Loukidis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel%Fernández%NULL%1,     Iago%Giné-Vázquez%NULL%1,     Ivy%Liu%NULL%1,     Recai%Yucel%NULL%1,     Marta%Nai Ruscone%NULL%1,     Marianthi%Morena%NULL%1,     Víctor Gerardo%García%NULL%1,     Josep Maria%Haro%NULL%1,     William%Pan%NULL%1,     Stefanos%Tyrovolas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yueling%Ma%NULL%1,      Yadong%Zhao%NULL%1,      Jiangtao%Liu%NULL%1,      Xiaotao%He%NULL%1,      Bo%Wang%NULL%0,      Shihua%Fu%NULL%1,      Jun%Yan%NULL%1,      Jingping%Niu%NULL%1,      Ji%Zhou%NULL%1,      Bin%Luo%luob@lzu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Marcos Felipe Falcão%Sobral%NULL%1,      Gisleia Benini%Duarte%NULL%1,      Ana Iza Gomes%da Penha Sobral%NULL%1,      Marcelo Luiz Monteiro%Marinho%NULL%1,      André%de Souza Melo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dai%Su%NULL%1,      Yingchun%Chen%NULL%1,      Kevin%He%NULL%1,      Tao%Zhang%NULL%0,      Min%Tan%NULL%1,      Yunfan%Zhang%NULL%1,      Xingyu%Zhang%NULL%1,       D.%Su%null%1,       Y.% Chen%null%0,       K.% He%null%1,       T.% Zhang%null%1,       M.% Tan%null%1,       Y.% Zhang%null%1,       X. % Zhang%null%1,    D.%Su%null%1,    Y.% Chen%null%1,    K.% He%null%1,    T.% Zhang%null%1,    M.% Tan%null%1,    Y.% Zhang%null%1,    X. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Yu%Wu%NULL%1,      Wenzhan%Jing%NULL%1,      Jue%Liu%NULL%1,      Qiuyue%Ma%NULL%1,      Jie%Yuan%NULL%1,      Yaping%Wang%NULL%1,      Min%Du%NULL%1,      Min%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yasir%Rehman%NULL%1,      Nadia%Rehman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cui%Guo%NULL%1,      Yacong%Bo%NULL%1,      Changqing%Lin%NULL%1,      Hao Bi%Li%NULL%1,      Yiqian%Zeng%NULL%1,      Yumiao%Zhang%NULL%1,      Md Shakhaoat%Hossain%NULL%1,      Jimmy W.M.%Chan%NULL%1,      David W.%Yeung%NULL%1,      Kin-on%Kwok%NULL%1,      Samuel Y.S.%Wong%NULL%1,      Alexis K.H.%Lau%NULL%1,      Xiang Qian%Lao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abu Reza Md. Towfiqul%Islam%towfiq_dm@brur.ac.bd%1,      Md.%Hasanuzzaman%NULL%2,      Md.%Hasanuzzaman%NULL%0,      Mashura%Shammi%NULL%1,      Roquia%Salam%NULL%1,      Md.%Bodrud-Doza%NULL%1,      Md. Mostafizur%Rahman%rahmanmm@juniv.edu%1,      Md. Abdul%Mannan%NULL%1,      Saleemul%Huq%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Jiang%yjiang1@vt.edu%1,      Jing%Xu%xujingjingalpha@sohu.com%0]</t>
+  </si>
+  <si>
+    <t>[Yeran%Sun%NULL%1,      Xuke%Hu%NULL%1,      Jing%Xie%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ploutarchos%Tzampoglou%NULL%1,      Dimitrios%Loukidis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel%Fernández%NULL%1,      Iago%Giné-Vázquez%NULL%1,      Ivy%Liu%NULL%1,      Recai%Yucel%NULL%1,      Marta%Nai Ruscone%NULL%1,      Marianthi%Morena%NULL%1,      Víctor Gerardo%García%NULL%1,      Josep Maria%Haro%NULL%1,      William%Pan%NULL%1,      Stefanos%Tyrovolas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yueling%Ma%NULL%1,       Yadong%Zhao%NULL%1,       Jiangtao%Liu%NULL%1,       Xiaotao%He%NULL%1,       Bo%Wang%NULL%0,       Shihua%Fu%NULL%1,       Jun%Yan%NULL%1,       Jingping%Niu%NULL%1,       Ji%Zhou%NULL%1,       Bin%Luo%luob@lzu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Marcos Felipe Falcão%Sobral%NULL%1,       Gisleia Benini%Duarte%NULL%1,       Ana Iza Gomes%da Penha Sobral%NULL%1,       Marcelo Luiz Monteiro%Marinho%NULL%1,       André%de Souza Melo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dai%Su%NULL%1,       Yingchun%Chen%NULL%1,       Kevin%He%NULL%1,       Tao%Zhang%NULL%0,       Min%Tan%NULL%1,       Yunfan%Zhang%NULL%1,       Xingyu%Zhang%NULL%1,        D.%Su%null%1,        Y.% Chen%null%0,        K.% He%null%1,        T.% Zhang%null%1,        M.% Tan%null%1,        Y.% Zhang%null%1,        X. % Zhang%null%1,     D.%Su%null%1,     Y.% Chen%null%1,     K.% He%null%1,     T.% Zhang%null%1,     M.% Tan%null%1,     Y.% Zhang%null%1,     X. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Yu%Wu%NULL%1,       Wenzhan%Jing%NULL%1,       Jue%Liu%NULL%1,       Qiuyue%Ma%NULL%1,       Jie%Yuan%NULL%1,       Yaping%Wang%NULL%1,       Min%Du%NULL%1,       Min%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yasir%Rehman%NULL%1,       Nadia%Rehman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cui%Guo%NULL%1,       Yacong%Bo%NULL%1,       Changqing%Lin%NULL%1,       Hao Bi%Li%NULL%1,       Yiqian%Zeng%NULL%1,       Yumiao%Zhang%NULL%1,       Md Shakhaoat%Hossain%NULL%1,       Jimmy W.M.%Chan%NULL%1,       David W.%Yeung%NULL%1,       Kin-on%Kwok%NULL%1,       Samuel Y.S.%Wong%NULL%1,       Alexis K.H.%Lau%NULL%1,       Xiang Qian%Lao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abu Reza Md. Towfiqul%Islam%towfiq_dm@brur.ac.bd%1,       Md.%Hasanuzzaman%NULL%2,       Md.%Hasanuzzaman%NULL%0,       Mashura%Shammi%NULL%1,       Roquia%Salam%NULL%1,       Md.%Bodrud-Doza%NULL%1,       Md. Mostafizur%Rahman%rahmanmm@juniv.edu%1,       Md. Abdul%Mannan%NULL%1,       Saleemul%Huq%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Jiang%yjiang1@vt.edu%1,       Jing%Xu%xujingjingalpha@sohu.com%0]</t>
+  </si>
+  <si>
+    <t>[Yeran%Sun%NULL%1,       Xuke%Hu%NULL%1,       Jing%Xie%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ploutarchos%Tzampoglou%NULL%1,       Dimitrios%Loukidis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel%Fernández%NULL%1,       Iago%Giné-Vázquez%NULL%1,       Ivy%Liu%NULL%1,       Recai%Yucel%NULL%1,       Marta%Nai Ruscone%NULL%1,       Marianthi%Morena%NULL%1,       Víctor Gerardo%García%NULL%1,       Josep Maria%Haro%NULL%1,       William%Pan%NULL%1,       Stefanos%Tyrovolas%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -826,7 +925,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -855,7 +954,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -884,7 +983,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -913,7 +1012,7 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="F5" t="s">
         <v>45</v>
@@ -942,7 +1041,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -971,7 +1070,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1000,7 +1099,7 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1029,7 +1128,7 @@
         <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -1058,7 +1157,7 @@
         <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -1087,7 +1186,7 @@
         <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="F11" t="s">
         <v>75</v>
@@ -1116,7 +1215,7 @@
         <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="F12" t="s">
         <v>80</v>

--- a/Covid_19_Dataset_and_References/References/104.xlsx
+++ b/Covid_19_Dataset_and_References/References/104.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="175">
   <si>
     <t>Doi</t>
   </si>
@@ -577,6 +577,72 @@
   </si>
   <si>
     <t>[Daniel%Fernández%NULL%1,       Iago%Giné-Vázquez%NULL%1,       Ivy%Liu%NULL%1,       Recai%Yucel%NULL%1,       Marta%Nai Ruscone%NULL%1,       Marianthi%Morena%NULL%1,       Víctor Gerardo%García%NULL%1,       Josep Maria%Haro%NULL%1,       William%Pan%NULL%1,       Stefanos%Tyrovolas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yueling%Ma%NULL%1,        Yadong%Zhao%NULL%1,        Jiangtao%Liu%NULL%1,        Xiaotao%He%NULL%1,        Bo%Wang%NULL%0,        Shihua%Fu%NULL%1,        Jun%Yan%NULL%1,        Jingping%Niu%NULL%1,        Ji%Zhou%NULL%1,        Bin%Luo%luob@lzu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Marcos Felipe Falcão%Sobral%NULL%1,        Gisleia Benini%Duarte%NULL%1,        Ana Iza Gomes%da Penha Sobral%NULL%1,        Marcelo Luiz Monteiro%Marinho%NULL%1,        André%de Souza Melo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dai%Su%NULL%1,        Yingchun%Chen%NULL%1,        Kevin%He%NULL%1,        Tao%Zhang%NULL%0,        Min%Tan%NULL%1,        Yunfan%Zhang%NULL%1,        Xingyu%Zhang%NULL%1,         D.%Su%null%1,         Y.% Chen%null%1,         K.% He%null%1,         T.% Zhang%null%1,         M.% Tan%null%1,         Y.% Zhang%null%1,         X. % Zhang%null%1,      D.%Su%null%1,      Y.% Chen%null%1,      K.% He%null%1,      T.% Zhang%null%1,      M.% Tan%null%1,      Y.% Zhang%null%1,      X. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Yu%Wu%NULL%1,        Wenzhan%Jing%NULL%1,        Jue%Liu%NULL%1,        Qiuyue%Ma%NULL%1,        Jie%Yuan%NULL%1,        Yaping%Wang%NULL%1,        Min%Du%NULL%1,        Min%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yasir%Rehman%NULL%1,        Nadia%Rehman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cui%Guo%NULL%1,        Yacong%Bo%NULL%1,        Changqing%Lin%NULL%1,        Hao Bi%Li%NULL%1,        Yiqian%Zeng%NULL%1,        Yumiao%Zhang%NULL%1,        Md Shakhaoat%Hossain%NULL%1,        Jimmy W.M.%Chan%NULL%1,        David W.%Yeung%NULL%1,        Kin-on%Kwok%NULL%1,        Samuel Y.S.%Wong%NULL%1,        Alexis K.H.%Lau%NULL%1,        Xiang Qian%Lao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abu Reza Md. Towfiqul%Islam%towfiq_dm@brur.ac.bd%1,        Md.%Hasanuzzaman%NULL%2,        Md.%Hasanuzzaman%NULL%0,        Mashura%Shammi%NULL%1,        Roquia%Salam%NULL%1,        Md.%Bodrud-Doza%NULL%1,        Md. Mostafizur%Rahman%rahmanmm@juniv.edu%1,        Md. Abdul%Mannan%NULL%1,        Saleemul%Huq%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Jiang%yjiang1@vt.edu%1,        Jing%Xu%xujingjingalpha@sohu.com%0]</t>
+  </si>
+  <si>
+    <t>[Yeran%Sun%NULL%1,        Xuke%Hu%NULL%1,        Jing%Xie%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ploutarchos%Tzampoglou%NULL%1,        Dimitrios%Loukidis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel%Fernández%NULL%1,        Iago%Giné-Vázquez%NULL%1,        Ivy%Liu%NULL%1,        Recai%Yucel%NULL%1,        Marta%Nai Ruscone%NULL%1,        Marianthi%Morena%NULL%1,        Víctor Gerardo%García%NULL%1,        Josep Maria%Haro%NULL%1,        William%Pan%NULL%1,        Stefanos%Tyrovolas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yueling%Ma%NULL%1,         Yadong%Zhao%NULL%1,         Jiangtao%Liu%NULL%1,         Xiaotao%He%NULL%1,         Bo%Wang%NULL%0,         Shihua%Fu%NULL%1,         Jun%Yan%NULL%1,         Jingping%Niu%NULL%1,         Ji%Zhou%NULL%1,         Bin%Luo%luob@lzu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Marcos Felipe Falcão%Sobral%NULL%1,         Gisleia Benini%Duarte%NULL%1,         Ana Iza Gomes%da Penha Sobral%NULL%1,         Marcelo Luiz Monteiro%Marinho%NULL%1,         André%de Souza Melo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dai%Su%NULL%1,         Yingchun%Chen%NULL%1,         Kevin%He%NULL%1,         Tao%Zhang%NULL%0,         Min%Tan%NULL%1,         Yunfan%Zhang%NULL%1,         Xingyu%Zhang%NULL%1,          D.%Su%null%1,          Y.% Chen%null%1,          K.% He%null%1,          T.% Zhang%null%1,          M.% Tan%null%1,          Y.% Zhang%null%1,          X. % Zhang%null%1,       D.%Su%null%1,       Y.% Chen%null%1,       K.% He%null%1,       T.% Zhang%null%1,       M.% Tan%null%1,       Y.% Zhang%null%1,       X. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Yu%Wu%NULL%1,         Wenzhan%Jing%NULL%1,         Jue%Liu%NULL%1,         Qiuyue%Ma%NULL%1,         Jie%Yuan%NULL%1,         Yaping%Wang%NULL%1,         Min%Du%NULL%1,         Min%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yasir%Rehman%NULL%1,         Nadia%Rehman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cui%Guo%NULL%1,         Yacong%Bo%NULL%1,         Changqing%Lin%NULL%1,         Hao Bi%Li%NULL%1,         Yiqian%Zeng%NULL%1,         Yumiao%Zhang%NULL%1,         Md Shakhaoat%Hossain%NULL%1,         Jimmy W.M.%Chan%NULL%1,         David W.%Yeung%NULL%1,         Kin-on%Kwok%NULL%1,         Samuel Y.S.%Wong%NULL%1,         Alexis K.H.%Lau%NULL%1,         Xiang Qian%Lao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abu Reza Md. Towfiqul%Islam%towfiq_dm@brur.ac.bd%1,         Md.%Hasanuzzaman%NULL%2,         Md.%Hasanuzzaman%NULL%0,         Mashura%Shammi%NULL%1,         Roquia%Salam%NULL%1,         Md.%Bodrud-Doza%NULL%1,         Md. Mostafizur%Rahman%rahmanmm@juniv.edu%1,         Md. Abdul%Mannan%NULL%1,         Saleemul%Huq%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Jiang%yjiang1@vt.edu%1,         Jing%Xu%xujingjingalpha@sohu.com%0]</t>
+  </si>
+  <si>
+    <t>[Yeran%Sun%NULL%1,         Xuke%Hu%NULL%1,         Jing%Xie%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ploutarchos%Tzampoglou%NULL%1,         Dimitrios%Loukidis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel%Fernández%NULL%1,         Iago%Giné-Vázquez%NULL%1,         Ivy%Liu%NULL%1,         Recai%Yucel%NULL%1,         Marta%Nai Ruscone%NULL%1,         Marianthi%Morena%NULL%1,         Víctor Gerardo%García%NULL%1,         Josep Maria%Haro%NULL%1,         William%Pan%NULL%1,         Stefanos%Tyrovolas%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -925,7 +991,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -954,7 +1020,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -983,7 +1049,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1012,7 +1078,7 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="F5" t="s">
         <v>45</v>
@@ -1041,7 +1107,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1070,7 +1136,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1099,7 +1165,7 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1128,7 +1194,7 @@
         <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -1157,7 +1223,7 @@
         <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -1186,7 +1252,7 @@
         <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="F11" t="s">
         <v>75</v>
@@ -1215,7 +1281,7 @@
         <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="F12" t="s">
         <v>80</v>

--- a/Covid_19_Dataset_and_References/References/104.xlsx
+++ b/Covid_19_Dataset_and_References/References/104.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="197">
   <si>
     <t>Doi</t>
   </si>
@@ -643,6 +643,72 @@
   </si>
   <si>
     <t>[Daniel%Fernández%NULL%1,         Iago%Giné-Vázquez%NULL%1,         Ivy%Liu%NULL%1,         Recai%Yucel%NULL%1,         Marta%Nai Ruscone%NULL%1,         Marianthi%Morena%NULL%1,         Víctor Gerardo%García%NULL%1,         Josep Maria%Haro%NULL%1,         William%Pan%NULL%1,         Stefanos%Tyrovolas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yueling%Ma%NULL%1,          Yadong%Zhao%NULL%1,          Jiangtao%Liu%NULL%1,          Xiaotao%He%NULL%1,          Bo%Wang%NULL%0,          Shihua%Fu%NULL%1,          Jun%Yan%NULL%1,          Jingping%Niu%NULL%1,          Ji%Zhou%NULL%1,          Bin%Luo%luob@lzu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Marcos Felipe Falcão%Sobral%NULL%1,          Gisleia Benini%Duarte%NULL%1,          Ana Iza Gomes%da Penha Sobral%NULL%1,          Marcelo Luiz Monteiro%Marinho%NULL%1,          André%de Souza Melo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dai%Su%NULL%1,          Yingchun%Chen%NULL%1,          Kevin%He%NULL%1,          Tao%Zhang%NULL%0,          Min%Tan%NULL%1,          Yunfan%Zhang%NULL%1,          Xingyu%Zhang%NULL%1,           D.%Su%null%1,           Y.% Chen%null%1,           K.% He%null%1,           T.% Zhang%null%1,           M.% Tan%null%1,           Y.% Zhang%null%1,           X. % Zhang%null%1,        D.%Su%null%1,        Y.% Chen%null%1,        K.% He%null%1,        T.% Zhang%null%1,        M.% Tan%null%1,        Y.% Zhang%null%1,        X. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Yu%Wu%NULL%1,          Wenzhan%Jing%NULL%1,          Jue%Liu%NULL%1,          Qiuyue%Ma%NULL%1,          Jie%Yuan%NULL%1,          Yaping%Wang%NULL%1,          Min%Du%NULL%1,          Min%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yasir%Rehman%NULL%1,          Nadia%Rehman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cui%Guo%NULL%1,          Yacong%Bo%NULL%1,          Changqing%Lin%NULL%1,          Hao Bi%Li%NULL%1,          Yiqian%Zeng%NULL%1,          Yumiao%Zhang%NULL%1,          Md Shakhaoat%Hossain%NULL%1,          Jimmy W.M.%Chan%NULL%1,          David W.%Yeung%NULL%1,          Kin-on%Kwok%NULL%1,          Samuel Y.S.%Wong%NULL%1,          Alexis K.H.%Lau%NULL%1,          Xiang Qian%Lao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abu Reza Md. Towfiqul%Islam%towfiq_dm@brur.ac.bd%1,          Md.%Hasanuzzaman%NULL%2,          Md.%Hasanuzzaman%NULL%0,          Mashura%Shammi%NULL%1,          Roquia%Salam%NULL%1,          Md.%Bodrud-Doza%NULL%1,          Md. Mostafizur%Rahman%rahmanmm@juniv.edu%1,          Md. Abdul%Mannan%NULL%1,          Saleemul%Huq%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Jiang%yjiang1@vt.edu%1,          Jing%Xu%xujingjingalpha@sohu.com%0]</t>
+  </si>
+  <si>
+    <t>[Yeran%Sun%NULL%1,          Xuke%Hu%NULL%1,          Jing%Xie%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ploutarchos%Tzampoglou%NULL%1,          Dimitrios%Loukidis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel%Fernández%NULL%1,          Iago%Giné-Vázquez%NULL%1,          Ivy%Liu%NULL%1,          Recai%Yucel%NULL%1,          Marta%Nai Ruscone%NULL%1,          Marianthi%Morena%NULL%1,          Víctor Gerardo%García%NULL%1,          Josep Maria%Haro%NULL%1,          William%Pan%NULL%1,          Stefanos%Tyrovolas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yueling%Ma%NULL%1,           Yadong%Zhao%NULL%1,           Jiangtao%Liu%NULL%1,           Xiaotao%He%NULL%1,           Bo%Wang%NULL%0,           Shihua%Fu%NULL%1,           Jun%Yan%NULL%1,           Jingping%Niu%NULL%1,           Ji%Zhou%NULL%1,           Bin%Luo%luob@lzu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Marcos Felipe Falcão%Sobral%NULL%1,           Gisleia Benini%Duarte%NULL%1,           Ana Iza Gomes%da Penha Sobral%NULL%1,           Marcelo Luiz Monteiro%Marinho%NULL%1,           André%de Souza Melo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dai%Su%NULL%1,           Yingchun%Chen%NULL%1,           Kevin%He%NULL%1,           Tao%Zhang%NULL%0,           Min%Tan%NULL%1,           Yunfan%Zhang%NULL%1,           Xingyu%Zhang%NULL%1,            D.%Su%null%1,            Y.% Chen%null%0,            K.% He%null%1,            T.% Zhang%null%1,            M.% Tan%null%1,            Y.% Zhang%null%1,            X. % Zhang%null%1,         D.%Su%null%1,         Y.% Chen%null%1,         K.% He%null%1,         T.% Zhang%null%1,         M.% Tan%null%1,         Y.% Zhang%null%1,         X. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Yu%Wu%NULL%1,           Wenzhan%Jing%NULL%1,           Jue%Liu%NULL%1,           Qiuyue%Ma%NULL%1,           Jie%Yuan%NULL%1,           Yaping%Wang%NULL%1,           Min%Du%NULL%1,           Min%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yasir%Rehman%NULL%1,           Nadia%Rehman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cui%Guo%NULL%1,           Yacong%Bo%NULL%1,           Changqing%Lin%NULL%1,           Hao Bi%Li%NULL%1,           Yiqian%Zeng%NULL%1,           Yumiao%Zhang%NULL%1,           Md Shakhaoat%Hossain%NULL%1,           Jimmy W.M.%Chan%NULL%1,           David W.%Yeung%NULL%1,           Kin-on%Kwok%NULL%1,           Samuel Y.S.%Wong%NULL%1,           Alexis K.H.%Lau%NULL%1,           Xiang Qian%Lao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abu Reza Md. Towfiqul%Islam%towfiq_dm@brur.ac.bd%1,           Md.%Hasanuzzaman%NULL%2,           Md.%Hasanuzzaman%NULL%0,           Mashura%Shammi%NULL%1,           Roquia%Salam%NULL%1,           Md.%Bodrud-Doza%NULL%1,           Md. Mostafizur%Rahman%rahmanmm@juniv.edu%1,           Md. Abdul%Mannan%NULL%1,           Saleemul%Huq%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Jiang%yjiang1@vt.edu%1,           Jing%Xu%xujingjingalpha@sohu.com%0]</t>
+  </si>
+  <si>
+    <t>[Yeran%Sun%NULL%1,           Xuke%Hu%NULL%1,           Jing%Xie%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ploutarchos%Tzampoglou%NULL%1,           Dimitrios%Loukidis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel%Fernández%NULL%1,           Iago%Giné-Vázquez%NULL%1,           Ivy%Liu%NULL%1,           Recai%Yucel%NULL%1,           Marta%Nai Ruscone%NULL%1,           Marianthi%Morena%NULL%1,           Víctor Gerardo%García%NULL%1,           Josep Maria%Haro%NULL%1,           William%Pan%NULL%1,           Stefanos%Tyrovolas%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -991,7 +1057,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -1020,7 +1086,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -1049,7 +1115,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1078,7 +1144,7 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="F5" t="s">
         <v>45</v>
@@ -1107,7 +1173,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1136,7 +1202,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1165,7 +1231,7 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1194,7 +1260,7 @@
         <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -1223,7 +1289,7 @@
         <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -1252,7 +1318,7 @@
         <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="F11" t="s">
         <v>75</v>
@@ -1281,7 +1347,7 @@
         <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="F12" t="s">
         <v>80</v>

--- a/Covid_19_Dataset_and_References/References/104.xlsx
+++ b/Covid_19_Dataset_and_References/References/104.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="221">
   <si>
     <t>Doi</t>
   </si>
@@ -709,6 +709,96 @@
   </si>
   <si>
     <t>[Daniel%Fernández%NULL%1,           Iago%Giné-Vázquez%NULL%1,           Ivy%Liu%NULL%1,           Recai%Yucel%NULL%1,           Marta%Nai Ruscone%NULL%1,           Marianthi%Morena%NULL%1,           Víctor Gerardo%García%NULL%1,           Josep Maria%Haro%NULL%1,           William%Pan%NULL%1,           Stefanos%Tyrovolas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yueling%Ma%NULL%1,            Yadong%Zhao%NULL%1,            Jiangtao%Liu%NULL%1,            Xiaotao%He%NULL%1,            Bo%Wang%NULL%0,            Shihua%Fu%NULL%1,            Jun%Yan%NULL%1,            Jingping%Niu%NULL%1,            Ji%Zhou%NULL%1,            Bin%Luo%luob@lzu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Marcos Felipe Falcão%Sobral%NULL%1,            Gisleia Benini%Duarte%NULL%1,            Ana Iza Gomes%da Penha Sobral%NULL%1,            Marcelo Luiz Monteiro%Marinho%NULL%1,            André%de Souza Melo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dai%Su%NULL%1,            Yingchun%Chen%NULL%1,            Kevin%He%NULL%1,            Tao%Zhang%NULL%0,            Min%Tan%NULL%1,            Yunfan%Zhang%NULL%1,            Xingyu%Zhang%NULL%1,             D.%Su%null%1,             Y.% Chen%null%1,             K.% He%null%1,             T.% Zhang%null%1,             M.% Tan%null%1,             Y.% Zhang%null%1,             X. % Zhang%null%1,          D.%Su%null%1,          Y.% Chen%null%1,          K.% He%null%1,          T.% Zhang%null%1,          M.% Tan%null%1,          Y.% Zhang%null%1,          X. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Yu%Wu%NULL%1,            Wenzhan%Jing%NULL%1,            Jue%Liu%NULL%1,            Qiuyue%Ma%NULL%1,            Jie%Yuan%NULL%1,            Yaping%Wang%NULL%1,            Min%Du%NULL%1,            Min%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yasir%Rehman%NULL%1,            Nadia%Rehman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cui%Guo%NULL%1,            Yacong%Bo%NULL%1,            Changqing%Lin%NULL%1,            Hao Bi%Li%NULL%1,            Yiqian%Zeng%NULL%1,            Yumiao%Zhang%NULL%1,            Md Shakhaoat%Hossain%NULL%1,            Jimmy W.M.%Chan%NULL%1,            David W.%Yeung%NULL%1,            Kin-on%Kwok%NULL%1,            Samuel Y.S.%Wong%NULL%1,            Alexis K.H.%Lau%NULL%1,            Xiang Qian%Lao%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Novel coronavirus (SARS-CoV-2) causing COVID-19 disease has arisen to be a pandemic.
+ Since there is a close association between other viral infection cases by epidemics and environmental factors, this study intends to unveil meteorological effects on the outbreak of COVID-19 across eight divisions of Bangladesh from March to April 2020. A compound Poisson generalized linear modeling (CPGLM), along with a Monte-Carlo method and random forest (RF) model, was employed to explore how meteorological factors affecting the COVID-19 transmission in Bangladesh.
+ Results showed that subtropical climate (mean temperature about 26.6 °C, mean relative humidity (MRH) 64%, and rainfall approximately 3 mm) enhanced COVD-19 onset.
+ The CPGLM model revealed that every 1 mm increase in rainfall elevated by 30.99% (95% CI 77.18%, − 15.20%) COVID-19 cases, while an increase of 1 °C of diurnal temperature (TDN) declined the confirmed cases by − 14.2% (95% CI 9.73%, − 38.13%) on the lag 1 and lag 2, respectively.
+ In addition, NRH and MRH had the highest increase (17.98% (95% CI 22.5%, 13.42%) and 19.92% (95% CI: 25.71%, 14.13%)) of COVID-19 cased in lag 4. The results of the RF model indicated that TDN and AH (absolute humidity) influence the COVID-19 cases most.
+ In the Dhaka division, MRH is the most vital meteorological factor that affects COVID-19 deaths.
+ This study indicates the humidity and rainfall are crucial factors affecting the COVID-19 case, which is contrary to many previous studies in other countries.
+ These outcomes can have policy formulation for the suppression of the COVID-19 outbreak in Bangladesh.
+</t>
+  </si>
+  <si>
+    <t>[Abu Reza Md. Towfiqul%Islam%towfiq_dm@brur.ac.bd%1,            Md.%Hasanuzzaman%NULL%2,            Md.%Hasanuzzaman%NULL%0,            Mashura%Shammi%NULL%1,            Roquia%Salam%NULL%1,            Md.%Bodrud-Doza%NULL%1,            Md. Mostafizur%Rahman%rahmanmm@juniv.edu%1,            Md. Abdul%Mannan%NULL%1,            Saleemul%Huq%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The emergence of coronavirus disease 2019 (COVID-19) has become a worldwide pandemic after its first outbreak in Wuhan, China.
+ However, it remains unclear whether COVID-19 death is linked to ambient air pollutants or meteorological conditions.
+ We collected the daily COVID-19 death number, air quality index (AQI), ambient air pollutant concentrations, and meteorological variables data of Wuhan between Jan 25 and April 7, 2020. The Pearson and Poisson regression models were used accordingly to understand the association between COVID-19 deaths and each risk factor.
+ The daily COVID-19 deaths were positively correlated with AQI (slope = 0.4 ± 0.09, R2 = 0.24, p &amp;lt; 0.01).
+ Detailedly, PM2.5 was the only pollutant exhibiting a positive association (relative risk (RR) = 1.079, 95%CI 1.071–1.086, p &amp;lt; 0.01) with COVID-19 deaths.
+ The PM10, SO2, and CO were all also significantly associated with COVID-19 deaths, but in negative pattern (p &amp;lt; 0.01).
+ Among them, PM10 and CO had the highest and lowest RR, which equaled to 0.952 (95%CI 0.945–0.959) and 0.177 (95%CI 0.131–0.24), respectively.
+ Additionally, temperature was inversely associated with COVID-19 deaths (RR = 0.861, 95%CI 0.851–0.872, p &amp;lt; 0.01).
+ Contrarily, diurnal temperature range was positively associated with COVID-19 deaths (RR = 1.014, 95%CI 1.003–1.025, p &amp;lt; 0.05).
+ The data suggested that PM2.5 and diurnal temperature range are tightly associated with increased COVID-19 deaths.
+</t>
+  </si>
+  <si>
+    <t>[Ying%Jiang%yjiang1@vt.edu%1,            Jing%Xu%xujingjingalpha@sohu.com%0]</t>
+  </si>
+  <si>
+    <t>[Yeran%Sun%NULL%1,            Xuke%Hu%NULL%1,            Jing%Xie%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ploutarchos%Tzampoglou%NULL%1,            Dimitrios%Loukidis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel%Fernández%NULL%1,            Iago%Giné-Vázquez%NULL%1,            Ivy%Liu%NULL%1,            Recai%Yucel%NULL%1,            Marta%Nai Ruscone%NULL%1,            Marianthi%Morena%NULL%1,            Víctor Gerardo%García%NULL%1,            Josep Maria%Haro%NULL%1,            William%Pan%NULL%1,            Stefanos%Tyrovolas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yueling%Ma%NULL%1,             Yadong%Zhao%NULL%1,             Jiangtao%Liu%NULL%1,             Xiaotao%He%NULL%1,             Bo%Wang%NULL%0,             Shihua%Fu%NULL%1,             Jun%Yan%NULL%1,             Jingping%Niu%NULL%1,             Ji%Zhou%NULL%1,             Bin%Luo%luob@lzu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Marcos Felipe Falcão%Sobral%NULL%1,             Gisleia Benini%Duarte%NULL%1,             Ana Iza Gomes%da Penha Sobral%NULL%1,             Marcelo Luiz Monteiro%Marinho%NULL%1,             André%de Souza Melo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dai%Su%NULL%1,             Yingchun%Chen%NULL%1,             Kevin%He%NULL%1,             Tao%Zhang%NULL%0,             Min%Tan%NULL%1,             Yunfan%Zhang%NULL%1,             Xingyu%Zhang%NULL%1,              D.%Su%null%1,              Y.% Chen%null%1,              K.% He%null%1,              T.% Zhang%null%1,              M.% Tan%null%1,              Y.% Zhang%null%1,              X. % Zhang%null%1,           D.%Su%null%1,           Y.% Chen%null%1,           K.% He%null%1,           T.% Zhang%null%1,           M.% Tan%null%1,           Y.% Zhang%null%1,           X. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Yu%Wu%NULL%1,             Wenzhan%Jing%NULL%1,             Jue%Liu%NULL%1,             Qiuyue%Ma%NULL%1,             Jie%Yuan%NULL%1,             Yaping%Wang%NULL%1,             Min%Du%NULL%1,             Min%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yasir%Rehman%NULL%1,             Nadia%Rehman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cui%Guo%NULL%1,             Yacong%Bo%NULL%1,             Changqing%Lin%NULL%1,             Hao Bi%Li%NULL%1,             Yiqian%Zeng%NULL%1,             Yumiao%Zhang%NULL%1,             Md Shakhaoat%Hossain%NULL%1,             Jimmy W.M.%Chan%NULL%1,             David W.%Yeung%NULL%1,             Kin-on%Kwok%NULL%1,             Samuel Y.S.%Wong%NULL%1,             Alexis K.H.%Lau%NULL%1,             Xiang Qian%Lao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abu Reza Md. Towfiqul%Islam%towfiq_dm@brur.ac.bd%1,             Md.%Hasanuzzaman%NULL%2,             Md.%Hasanuzzaman%NULL%0,             Mashura%Shammi%NULL%1,             Roquia%Salam%NULL%1,             Md.%Bodrud-Doza%NULL%1,             Md. Mostafizur%Rahman%rahmanmm@juniv.edu%1,             Md. Abdul%Mannan%NULL%1,             Saleemul%Huq%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Jiang%yjiang1@vt.edu%1,             Jing%Xu%xujingjingalpha@sohu.com%0]</t>
+  </si>
+  <si>
+    <t>[Yeran%Sun%NULL%1,             Xuke%Hu%NULL%1,             Jing%Xie%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ploutarchos%Tzampoglou%NULL%1,             Dimitrios%Loukidis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel%Fernández%NULL%1,             Iago%Giné-Vázquez%NULL%1,             Ivy%Liu%NULL%1,             Recai%Yucel%NULL%1,             Marta%Nai Ruscone%NULL%1,             Marianthi%Morena%NULL%1,             Víctor Gerardo%García%NULL%1,             Josep Maria%Haro%NULL%1,             William%Pan%NULL%1,             Stefanos%Tyrovolas%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1057,7 +1147,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -1086,7 +1176,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -1115,7 +1205,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1144,7 +1234,7 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="F5" t="s">
         <v>45</v>
@@ -1173,7 +1263,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1202,7 +1292,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1228,10 +1318,10 @@
         <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>203</v>
       </c>
       <c r="E8" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1257,10 +1347,10 @@
         <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>205</v>
       </c>
       <c r="E9" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -1289,7 +1379,7 @@
         <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -1318,7 +1408,7 @@
         <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="F11" t="s">
         <v>75</v>
@@ -1347,7 +1437,7 @@
         <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="F12" t="s">
         <v>80</v>

--- a/Covid_19_Dataset_and_References/References/104.xlsx
+++ b/Covid_19_Dataset_and_References/References/104.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="232">
   <si>
     <t>Doi</t>
   </si>
@@ -799,6 +799,39 @@
   </si>
   <si>
     <t>[Daniel%Fernández%NULL%1,             Iago%Giné-Vázquez%NULL%1,             Ivy%Liu%NULL%1,             Recai%Yucel%NULL%1,             Marta%Nai Ruscone%NULL%1,             Marianthi%Morena%NULL%1,             Víctor Gerardo%García%NULL%1,             Josep Maria%Haro%NULL%1,             William%Pan%NULL%1,             Stefanos%Tyrovolas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yueling%Ma%NULL%1,              Yadong%Zhao%NULL%1,              Jiangtao%Liu%NULL%1,              Xiaotao%He%NULL%1,              Bo%Wang%NULL%0,              Shihua%Fu%NULL%1,              Jun%Yan%NULL%1,              Jingping%Niu%NULL%1,              Ji%Zhou%NULL%1,              Bin%Luo%luob@lzu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Marcos Felipe Falcão%Sobral%NULL%1,              Gisleia Benini%Duarte%NULL%1,              Ana Iza Gomes%da Penha Sobral%NULL%1,              Marcelo Luiz Monteiro%Marinho%NULL%1,              André%de Souza Melo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dai%Su%NULL%1,              Yingchun%Chen%NULL%1,              Kevin%He%NULL%1,              Tao%Zhang%NULL%0,              Min%Tan%NULL%1,              Yunfan%Zhang%NULL%1,              Xingyu%Zhang%NULL%1,               D.%Su%null%1,               Y.% Chen%null%1,               K.% He%null%1,               T.% Zhang%null%1,               M.% Tan%null%1,               Y.% Zhang%null%1,               X. % Zhang%null%1,            D.%Su%null%1,            Y.% Chen%null%0,            K.% He%null%1,            T.% Zhang%null%1,            M.% Tan%null%1,            Y.% Zhang%null%1,            X. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Yu%Wu%NULL%1,              Wenzhan%Jing%NULL%1,              Jue%Liu%NULL%1,              Qiuyue%Ma%NULL%1,              Jie%Yuan%NULL%1,              Yaping%Wang%NULL%1,              Min%Du%NULL%1,              Min%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yasir%Rehman%NULL%1,              Nadia%Rehman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cui%Guo%NULL%1,              Yacong%Bo%NULL%1,              Changqing%Lin%NULL%1,              Hao Bi%Li%NULL%1,              Yiqian%Zeng%NULL%1,              Yumiao%Zhang%NULL%1,              Md Shakhaoat%Hossain%NULL%1,              Jimmy W.M.%Chan%NULL%1,              David W.%Yeung%NULL%1,              Kin-on%Kwok%NULL%1,              Samuel Y.S.%Wong%NULL%1,              Alexis K.H.%Lau%NULL%1,              Xiang Qian%Lao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abu Reza Md. Towfiqul%Islam%towfiq_dm@brur.ac.bd%1,              Md.%Hasanuzzaman%NULL%2,              Md.%Hasanuzzaman%NULL%0,              Mashura%Shammi%NULL%1,              Roquia%Salam%NULL%1,              Md.%Bodrud-Doza%NULL%1,              Md. Mostafizur%Rahman%rahmanmm@juniv.edu%1,              Md. Abdul%Mannan%NULL%1,              Saleemul%Huq%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Jiang%yjiang1@vt.edu%1,              Jing%Xu%xujingjingalpha@sohu.com%0]</t>
+  </si>
+  <si>
+    <t>[Yeran%Sun%NULL%1,              Xuke%Hu%NULL%1,              Jing%Xie%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ploutarchos%Tzampoglou%NULL%1,              Dimitrios%Loukidis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel%Fernández%NULL%1,              Iago%Giné-Vázquez%NULL%1,              Ivy%Liu%NULL%1,              Recai%Yucel%NULL%1,              Marta%Nai Ruscone%NULL%1,              Marianthi%Morena%NULL%1,              Víctor Gerardo%García%NULL%1,              Josep Maria%Haro%NULL%1,              William%Pan%NULL%1,              Stefanos%Tyrovolas%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1147,7 +1180,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -1176,7 +1209,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -1205,7 +1238,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1234,7 +1267,7 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="F5" t="s">
         <v>45</v>
@@ -1263,7 +1296,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1292,7 +1325,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1321,7 +1354,7 @@
         <v>203</v>
       </c>
       <c r="E8" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1350,7 +1383,7 @@
         <v>205</v>
       </c>
       <c r="E9" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -1379,7 +1412,7 @@
         <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -1408,7 +1441,7 @@
         <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="F11" t="s">
         <v>75</v>
@@ -1437,7 +1470,7 @@
         <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="F12" t="s">
         <v>80</v>

--- a/Covid_19_Dataset_and_References/References/104.xlsx
+++ b/Covid_19_Dataset_and_References/References/104.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="243">
   <si>
     <t>Doi</t>
   </si>
@@ -832,6 +832,39 @@
   </si>
   <si>
     <t>[Daniel%Fernández%NULL%1,              Iago%Giné-Vázquez%NULL%1,              Ivy%Liu%NULL%1,              Recai%Yucel%NULL%1,              Marta%Nai Ruscone%NULL%1,              Marianthi%Morena%NULL%1,              Víctor Gerardo%García%NULL%1,              Josep Maria%Haro%NULL%1,              William%Pan%NULL%1,              Stefanos%Tyrovolas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yueling%Ma%NULL%1,               Yadong%Zhao%NULL%1,               Jiangtao%Liu%NULL%1,               Xiaotao%He%NULL%1,               Bo%Wang%NULL%0,               Shihua%Fu%NULL%1,               Jun%Yan%NULL%1,               Jingping%Niu%NULL%1,               Ji%Zhou%NULL%1,               Bin%Luo%luob@lzu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Marcos Felipe Falcão%Sobral%NULL%1,               Gisleia Benini%Duarte%NULL%1,               Ana Iza Gomes%da Penha Sobral%NULL%1,               Marcelo Luiz Monteiro%Marinho%NULL%1,               André%de Souza Melo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dai%Su%NULL%1,               Yingchun%Chen%NULL%1,               Kevin%He%NULL%1,               Tao%Zhang%NULL%0,               Min%Tan%NULL%1,               Yunfan%Zhang%NULL%1,               Xingyu%Zhang%NULL%1,                D.%Su%null%1,                Y.% Chen%null%1,                K.% He%null%1,                T.% Zhang%null%1,                M.% Tan%null%1,                Y.% Zhang%null%1,                X. % Zhang%null%1,             D.%Su%null%1,             Y.% Chen%null%1,             K.% He%null%1,             T.% Zhang%null%1,             M.% Tan%null%1,             Y.% Zhang%null%1,             X. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Yu%Wu%NULL%1,               Wenzhan%Jing%NULL%1,               Jue%Liu%NULL%1,               Qiuyue%Ma%NULL%1,               Jie%Yuan%NULL%1,               Yaping%Wang%NULL%1,               Min%Du%NULL%1,               Min%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yasir%Rehman%NULL%1,               Nadia%Rehman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cui%Guo%NULL%1,               Yacong%Bo%NULL%1,               Changqing%Lin%NULL%1,               Hao Bi%Li%NULL%1,               Yiqian%Zeng%NULL%1,               Yumiao%Zhang%NULL%1,               Md Shakhaoat%Hossain%NULL%1,               Jimmy W.M.%Chan%NULL%1,               David W.%Yeung%NULL%1,               Kin-on%Kwok%NULL%1,               Samuel Y.S.%Wong%NULL%1,               Alexis K.H.%Lau%NULL%1,               Xiang Qian%Lao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abu Reza Md. Towfiqul%Islam%towfiq_dm@brur.ac.bd%1,               Md.%Hasanuzzaman%NULL%2,               Md.%Hasanuzzaman%NULL%0,               Mashura%Shammi%NULL%1,               Roquia%Salam%NULL%1,               Md.%Bodrud-Doza%NULL%1,               Md. Mostafizur%Rahman%rahmanmm@juniv.edu%1,               Md. Abdul%Mannan%NULL%1,               Saleemul%Huq%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Jiang%yjiang1@vt.edu%1,               Jing%Xu%xujingjingalpha@sohu.com%0]</t>
+  </si>
+  <si>
+    <t>[Yeran%Sun%NULL%1,               Xuke%Hu%NULL%1,               Jing%Xie%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ploutarchos%Tzampoglou%NULL%1,               Dimitrios%Loukidis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel%Fernández%NULL%1,               Iago%Giné-Vázquez%NULL%1,               Ivy%Liu%NULL%1,               Recai%Yucel%NULL%1,               Marta%Nai Ruscone%NULL%1,               Marianthi%Morena%NULL%1,               Víctor Gerardo%García%NULL%1,               Josep Maria%Haro%NULL%1,               William%Pan%NULL%1,               Stefanos%Tyrovolas%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1180,7 +1213,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -1209,7 +1242,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -1238,7 +1271,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1267,7 +1300,7 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="F5" t="s">
         <v>45</v>
@@ -1296,7 +1329,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1325,7 +1358,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1354,7 +1387,7 @@
         <v>203</v>
       </c>
       <c r="E8" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1383,7 +1416,7 @@
         <v>205</v>
       </c>
       <c r="E9" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -1412,7 +1445,7 @@
         <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -1441,7 +1474,7 @@
         <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="F11" t="s">
         <v>75</v>
@@ -1470,7 +1503,7 @@
         <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="F12" t="s">
         <v>80</v>

--- a/Covid_19_Dataset_and_References/References/104.xlsx
+++ b/Covid_19_Dataset_and_References/References/104.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="265">
   <si>
     <t>Doi</t>
   </si>
@@ -865,6 +865,72 @@
   </si>
   <si>
     <t>[Daniel%Fernández%NULL%1,               Iago%Giné-Vázquez%NULL%1,               Ivy%Liu%NULL%1,               Recai%Yucel%NULL%1,               Marta%Nai Ruscone%NULL%1,               Marianthi%Morena%NULL%1,               Víctor Gerardo%García%NULL%1,               Josep Maria%Haro%NULL%1,               William%Pan%NULL%1,               Stefanos%Tyrovolas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yueling%Ma%NULL%1,                Yadong%Zhao%NULL%1,                Jiangtao%Liu%NULL%1,                Xiaotao%He%NULL%1,                Bo%Wang%NULL%0,                Shihua%Fu%NULL%1,                Jun%Yan%NULL%1,                Jingping%Niu%NULL%1,                Ji%Zhou%NULL%1,                Bin%Luo%luob@lzu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Marcos Felipe Falcão%Sobral%NULL%1,                Gisleia Benini%Duarte%NULL%1,                Ana Iza Gomes%da Penha Sobral%NULL%1,                Marcelo Luiz Monteiro%Marinho%NULL%1,                André%de Souza Melo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dai%Su%NULL%1,                Yingchun%Chen%NULL%1,                Kevin%He%NULL%1,                Tao%Zhang%NULL%0,                Min%Tan%NULL%1,                Yunfan%Zhang%NULL%1,                Xingyu%Zhang%NULL%1,                 D.%Su%null%1,                 Y.% Chen%null%1,                 K.% He%null%1,                 T.% Zhang%null%1,                 M.% Tan%null%1,                 Y.% Zhang%null%1,                 X. % Zhang%null%1,              D.%Su%null%1,              Y.% Chen%null%1,              K.% He%null%1,              T.% Zhang%null%1,              M.% Tan%null%1,              Y.% Zhang%null%1,              X. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Yu%Wu%NULL%1,                Wenzhan%Jing%NULL%1,                Jue%Liu%NULL%1,                Qiuyue%Ma%NULL%1,                Jie%Yuan%NULL%1,                Yaping%Wang%NULL%1,                Min%Du%NULL%1,                Min%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yasir%Rehman%NULL%1,                Nadia%Rehman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cui%Guo%NULL%1,                Yacong%Bo%NULL%1,                Changqing%Lin%NULL%1,                Hao Bi%Li%NULL%1,                Yiqian%Zeng%NULL%1,                Yumiao%Zhang%NULL%1,                Md Shakhaoat%Hossain%NULL%1,                Jimmy W.M.%Chan%NULL%1,                David W.%Yeung%NULL%1,                Kin-on%Kwok%NULL%1,                Samuel Y.S.%Wong%NULL%1,                Alexis K.H.%Lau%NULL%1,                Xiang Qian%Lao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abu Reza Md. Towfiqul%Islam%towfiq_dm@brur.ac.bd%1,                Md.%Hasanuzzaman%NULL%2,                Md.%Hasanuzzaman%NULL%0,                Mashura%Shammi%NULL%1,                Roquia%Salam%NULL%1,                Md.%Bodrud-Doza%NULL%1,                Md. Mostafizur%Rahman%rahmanmm@juniv.edu%1,                Md. Abdul%Mannan%NULL%1,                Saleemul%Huq%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Jiang%yjiang1@vt.edu%1,                Jing%Xu%xujingjingalpha@sohu.com%0]</t>
+  </si>
+  <si>
+    <t>[Yeran%Sun%NULL%1,                Xuke%Hu%NULL%1,                Jing%Xie%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ploutarchos%Tzampoglou%NULL%1,                Dimitrios%Loukidis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel%Fernández%NULL%1,                Iago%Giné-Vázquez%NULL%1,                Ivy%Liu%NULL%1,                Recai%Yucel%NULL%1,                Marta%Nai Ruscone%NULL%1,                Marianthi%Morena%NULL%1,                Víctor Gerardo%García%NULL%1,                Josep Maria%Haro%NULL%1,                William%Pan%NULL%1,                Stefanos%Tyrovolas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yueling%Ma%NULL%1,                 Yadong%Zhao%NULL%1,                 Jiangtao%Liu%NULL%1,                 Xiaotao%He%NULL%1,                 Bo%Wang%NULL%0,                 Shihua%Fu%NULL%1,                 Jun%Yan%NULL%1,                 Jingping%Niu%NULL%1,                 Ji%Zhou%NULL%1,                 Bin%Luo%luob@lzu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Marcos Felipe Falcão%Sobral%NULL%1,                 Gisleia Benini%Duarte%NULL%1,                 Ana Iza Gomes%da Penha Sobral%NULL%1,                 Marcelo Luiz Monteiro%Marinho%NULL%1,                 André%de Souza Melo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dai%Su%NULL%1,                 Yingchun%Chen%NULL%1,                 Kevin%He%NULL%1,                 Tao%Zhang%NULL%0,                 Min%Tan%NULL%1,                 Yunfan%Zhang%NULL%1,                 Xingyu%Zhang%NULL%1,                  D.%Su%null%1,                  Y.% Chen%null%1,                  K.% He%null%1,                  T.% Zhang%null%1,                  M.% Tan%null%1,                  Y.% Zhang%null%1,                  X. % Zhang%null%1,               D.%Su%null%1,               Y.% Chen%null%1,               K.% He%null%1,               T.% Zhang%null%1,               M.% Tan%null%1,               Y.% Zhang%null%1,               X. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Yu%Wu%NULL%1,                 Wenzhan%Jing%NULL%1,                 Jue%Liu%NULL%1,                 Qiuyue%Ma%NULL%1,                 Jie%Yuan%NULL%1,                 Yaping%Wang%NULL%1,                 Min%Du%NULL%1,                 Min%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yasir%Rehman%NULL%1,                 Nadia%Rehman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cui%Guo%NULL%1,                 Yacong%Bo%NULL%1,                 Changqing%Lin%NULL%1,                 Hao Bi%Li%NULL%1,                 Yiqian%Zeng%NULL%1,                 Yumiao%Zhang%NULL%1,                 Md Shakhaoat%Hossain%NULL%1,                 Jimmy W.M.%Chan%NULL%1,                 David W.%Yeung%NULL%1,                 Kin-on%Kwok%NULL%1,                 Samuel Y.S.%Wong%NULL%1,                 Alexis K.H.%Lau%NULL%1,                 Xiang Qian%Lao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abu Reza Md. Towfiqul%Islam%towfiq_dm@brur.ac.bd%1,                 Md.%Hasanuzzaman%NULL%2,                 Md.%Hasanuzzaman%NULL%0,                 Mashura%Shammi%NULL%1,                 Roquia%Salam%NULL%1,                 Md.%Bodrud-Doza%NULL%1,                 Md. Mostafizur%Rahman%rahmanmm@juniv.edu%1,                 Md. Abdul%Mannan%NULL%1,                 Saleemul%Huq%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Jiang%yjiang1@vt.edu%1,                 Jing%Xu%xujingjingalpha@sohu.com%0]</t>
+  </si>
+  <si>
+    <t>[Yeran%Sun%NULL%1,                 Xuke%Hu%NULL%1,                 Jing%Xie%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ploutarchos%Tzampoglou%NULL%1,                 Dimitrios%Loukidis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel%Fernández%NULL%1,                 Iago%Giné-Vázquez%NULL%1,                 Ivy%Liu%NULL%1,                 Recai%Yucel%NULL%1,                 Marta%Nai Ruscone%NULL%1,                 Marianthi%Morena%NULL%1,                 Víctor Gerardo%García%NULL%1,                 Josep Maria%Haro%NULL%1,                 William%Pan%NULL%1,                 Stefanos%Tyrovolas%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1213,7 +1279,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -1242,7 +1308,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -1271,7 +1337,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1300,7 +1366,7 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="F5" t="s">
         <v>45</v>
@@ -1329,7 +1395,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1358,7 +1424,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1387,7 +1453,7 @@
         <v>203</v>
       </c>
       <c r="E8" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1416,7 +1482,7 @@
         <v>205</v>
       </c>
       <c r="E9" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -1445,7 +1511,7 @@
         <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -1474,7 +1540,7 @@
         <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="F11" t="s">
         <v>75</v>
@@ -1503,7 +1569,7 @@
         <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="F12" t="s">
         <v>80</v>

--- a/Covid_19_Dataset_and_References/References/104.xlsx
+++ b/Covid_19_Dataset_and_References/References/104.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1587" uniqueCount="276">
   <si>
     <t>Doi</t>
   </si>
@@ -931,6 +931,39 @@
   </si>
   <si>
     <t>[Daniel%Fernández%NULL%1,                 Iago%Giné-Vázquez%NULL%1,                 Ivy%Liu%NULL%1,                 Recai%Yucel%NULL%1,                 Marta%Nai Ruscone%NULL%1,                 Marianthi%Morena%NULL%1,                 Víctor Gerardo%García%NULL%1,                 Josep Maria%Haro%NULL%1,                 William%Pan%NULL%1,                 Stefanos%Tyrovolas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yueling%Ma%NULL%1,                  Yadong%Zhao%NULL%1,                  Jiangtao%Liu%NULL%1,                  Xiaotao%He%NULL%1,                  Bo%Wang%NULL%0,                  Shihua%Fu%NULL%1,                  Jun%Yan%NULL%1,                  Jingping%Niu%NULL%1,                  Ji%Zhou%NULL%1,                  Bin%Luo%luob@lzu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Marcos Felipe Falcão%Sobral%NULL%1,                  Gisleia Benini%Duarte%NULL%1,                  Ana Iza Gomes%da Penha Sobral%NULL%1,                  Marcelo Luiz Monteiro%Marinho%NULL%1,                  André%de Souza Melo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dai%Su%NULL%1,                  Yingchun%Chen%NULL%1,                  Kevin%He%NULL%1,                  Tao%Zhang%NULL%0,                  Min%Tan%NULL%1,                  Yunfan%Zhang%NULL%1,                  Xingyu%Zhang%NULL%1,                   D.%Su%null%1,                   Y.% Chen%null%1,                   K.% He%null%1,                   T.% Zhang%null%1,                   M.% Tan%null%1,                   Y.% Zhang%null%1,                   X. % Zhang%null%1,                D.%Su%null%1,                Y.% Chen%null%1,                K.% He%null%1,                T.% Zhang%null%1,                M.% Tan%null%1,                Y.% Zhang%null%1,                X. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Yu%Wu%NULL%1,                  Wenzhan%Jing%NULL%1,                  Jue%Liu%NULL%1,                  Qiuyue%Ma%NULL%1,                  Jie%Yuan%NULL%1,                  Yaping%Wang%NULL%1,                  Min%Du%NULL%1,                  Min%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yasir%Rehman%NULL%1,                  Nadia%Rehman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cui%Guo%NULL%1,                  Yacong%Bo%NULL%1,                  Changqing%Lin%NULL%1,                  Hao Bi%Li%NULL%1,                  Yiqian%Zeng%NULL%1,                  Yumiao%Zhang%NULL%1,                  Md Shakhaoat%Hossain%NULL%1,                  Jimmy W.M.%Chan%NULL%1,                  David W.%Yeung%NULL%1,                  Kin-on%Kwok%NULL%1,                  Samuel Y.S.%Wong%NULL%1,                  Alexis K.H.%Lau%NULL%1,                  Xiang Qian%Lao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abu Reza Md. Towfiqul%Islam%towfiq_dm@brur.ac.bd%1,                  Md.%Hasanuzzaman%NULL%2,                  Md.%Hasanuzzaman%NULL%0,                  Mashura%Shammi%NULL%1,                  Roquia%Salam%NULL%1,                  Md.%Bodrud-Doza%NULL%1,                  Md. Mostafizur%Rahman%rahmanmm@juniv.edu%1,                  Md. Abdul%Mannan%NULL%1,                  Saleemul%Huq%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Jiang%yjiang1@vt.edu%1,                  Jing%Xu%xujingjingalpha@sohu.com%0]</t>
+  </si>
+  <si>
+    <t>[Yeran%Sun%NULL%1,                  Xuke%Hu%NULL%1,                  Jing%Xie%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ploutarchos%Tzampoglou%NULL%1,                  Dimitrios%Loukidis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel%Fernández%NULL%1,                  Iago%Giné-Vázquez%NULL%1,                  Ivy%Liu%NULL%1,                  Recai%Yucel%NULL%1,                  Marta%Nai Ruscone%NULL%1,                  Marianthi%Morena%NULL%1,                  Víctor Gerardo%García%NULL%1,                  Josep Maria%Haro%NULL%1,                  William%Pan%NULL%1,                  Stefanos%Tyrovolas%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1279,7 +1312,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -1308,7 +1341,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -1337,7 +1370,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1366,7 +1399,7 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="F5" t="s">
         <v>45</v>
@@ -1395,7 +1428,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1424,7 +1457,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1453,7 +1486,7 @@
         <v>203</v>
       </c>
       <c r="E8" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1482,7 +1515,7 @@
         <v>205</v>
       </c>
       <c r="E9" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -1511,7 +1544,7 @@
         <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -1540,7 +1573,7 @@
         <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="F11" t="s">
         <v>75</v>
@@ -1569,7 +1602,7 @@
         <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="F12" t="s">
         <v>80</v>

--- a/Covid_19_Dataset_and_References/References/104.xlsx
+++ b/Covid_19_Dataset_and_References/References/104.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1587" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="290">
   <si>
     <t>Doi</t>
   </si>
@@ -964,6 +964,48 @@
   </si>
   <si>
     <t>[Daniel%Fernández%NULL%1,                  Iago%Giné-Vázquez%NULL%1,                  Ivy%Liu%NULL%1,                  Recai%Yucel%NULL%1,                  Marta%Nai Ruscone%NULL%1,                  Marianthi%Morena%NULL%1,                  Víctor Gerardo%García%NULL%1,                  Josep Maria%Haro%NULL%1,                  William%Pan%NULL%1,                  Stefanos%Tyrovolas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yueling%Ma%NULL%1,                   Yadong%Zhao%NULL%1,                   Jiangtao%Liu%NULL%1,                   Xiaotao%He%NULL%1,                   Bo%Wang%NULL%0,                   Shihua%Fu%NULL%1,                   Jun%Yan%NULL%1,                   Jingping%Niu%NULL%1,                   Ji%Zhou%NULL%1,                   Bin%Luo%luob@lzu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Marcos Felipe Falcão%Sobral%NULL%1,                   Gisleia Benini%Duarte%NULL%1,                   Ana Iza Gomes%da Penha Sobral%NULL%1,                   Marcelo Luiz Monteiro%Marinho%NULL%1,                   André%de Souza Melo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dai%Su%NULL%1,                   Yingchun%Chen%NULL%1,                   Kevin%He%NULL%1,                   Tao%Zhang%NULL%0,                   Min%Tan%NULL%1,                   Yunfan%Zhang%NULL%1,                   Xingyu%Zhang%NULL%1,                    D.%Su%null%1,                    Y.% Chen%null%1,                    K.% He%null%1,                    T.% Zhang%null%1,                    M.% Tan%null%1,                    Y.% Zhang%null%1,                    X. % Zhang%null%1,                 D.%Su%null%1,                 Y.% Chen%null%1,                 K.% He%null%1,                 T.% Zhang%null%1,                 M.% Tan%null%1,                 Y.% Zhang%null%1,                 X. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Yu%Wu%NULL%1,                   Wenzhan%Jing%NULL%1,                   Jue%Liu%NULL%1,                   Qiuyue%Ma%NULL%1,                   Jie%Yuan%NULL%1,                   Yaping%Wang%NULL%1,                   Min%Du%NULL%1,                   Min%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yasir%Rehman%NULL%1,                   Nadia%Rehman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cui%Guo%NULL%1,                   Yacong%Bo%NULL%1,                   Changqing%Lin%NULL%1,                   Hao Bi%Li%NULL%1,                   Yiqian%Zeng%NULL%1,                   Yumiao%Zhang%NULL%1,                   Md Shakhaoat%Hossain%NULL%1,                   Jimmy W.M.%Chan%NULL%1,                   David W.%Yeung%NULL%1,                   Kin-on%Kwok%NULL%1,                   Samuel Y.S.%Wong%NULL%1,                   Alexis K.H.%Lau%NULL%1,                   Xiang Qian%Lao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abu Reza Md. Towfiqul%Islam%towfiq_dm@brur.ac.bd%1,                   Md.%Hasanuzzaman%NULL%2,                   Md.%Hasanuzzaman%NULL%0,                   Mashura%Shammi%NULL%1,                   Roquia%Salam%NULL%1,                   Md.%Bodrud-Doza%NULL%1,                   Md. Mostafizur%Rahman%rahmanmm@juniv.edu%1,                   Md. Abdul%Mannan%NULL%1,                   Saleemul%Huq%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Ying%Jiang%yjiang1@vt.edu%1,                   Jing%Xu%xujingjingalpha@sohu.com%0]</t>
+  </si>
+  <si>
+    <t>[Yeran%Sun%NULL%1,                   Xuke%Hu%NULL%1,                   Jing%Xie%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ploutarchos%Tzampoglou%NULL%1,                   Dimitrios%Loukidis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel%Fernández%NULL%1,                   Iago%Giné-Vázquez%NULL%1,                   Ivy%Liu%NULL%1,                   Recai%Yucel%NULL%1,                   Marta%Nai Ruscone%NULL%1,                   Marianthi%Morena%NULL%1,                   Víctor Gerardo%García%NULL%1,                   Josep Maria%Haro%NULL%1,                   William%Pan%NULL%1,                   Stefanos%Tyrovolas%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1312,7 +1354,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -1324,7 +1366,7 @@
         <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>106</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3">
@@ -1341,7 +1383,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -1353,7 +1395,7 @@
         <v>36</v>
       </c>
       <c r="I3" t="s">
-        <v>106</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4">
@@ -1370,7 +1412,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1382,7 +1424,7 @@
         <v>41</v>
       </c>
       <c r="I4" t="s">
-        <v>110</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5">
@@ -1399,7 +1441,7 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F5" t="s">
         <v>45</v>
@@ -1411,7 +1453,7 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>106</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6">
@@ -1428,7 +1470,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1440,7 +1482,7 @@
         <v>51</v>
       </c>
       <c r="I6" t="s">
-        <v>110</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7">
@@ -1457,7 +1499,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1469,7 +1511,7 @@
         <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>106</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8">
@@ -1486,7 +1528,7 @@
         <v>203</v>
       </c>
       <c r="E8" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1498,7 +1540,7 @@
         <v>61</v>
       </c>
       <c r="I8" t="s">
-        <v>115</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9">
@@ -1515,7 +1557,7 @@
         <v>205</v>
       </c>
       <c r="E9" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -1527,7 +1569,7 @@
         <v>66</v>
       </c>
       <c r="I9" t="s">
-        <v>115</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10">
@@ -1544,7 +1586,7 @@
         <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -1556,7 +1598,7 @@
         <v>71</v>
       </c>
       <c r="I10" t="s">
-        <v>106</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11">
@@ -1573,7 +1615,7 @@
         <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="F11" t="s">
         <v>75</v>
@@ -1585,7 +1627,7 @@
         <v>76</v>
       </c>
       <c r="I11" t="s">
-        <v>110</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12">
@@ -1602,7 +1644,7 @@
         <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="F12" t="s">
         <v>80</v>
@@ -1614,7 +1656,7 @@
         <v>81</v>
       </c>
       <c r="I12" t="s">
-        <v>106</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/104.xlsx
+++ b/Covid_19_Dataset_and_References/References/104.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="301">
   <si>
     <t>Doi</t>
   </si>
@@ -1006,6 +1006,39 @@
   </si>
   <si>
     <t>[Daniel%Fernández%NULL%1,                   Iago%Giné-Vázquez%NULL%1,                   Ivy%Liu%NULL%1,                   Recai%Yucel%NULL%1,                   Marta%Nai Ruscone%NULL%1,                   Marianthi%Morena%NULL%1,                   Víctor Gerardo%García%NULL%1,                   Josep Maria%Haro%NULL%1,                   William%Pan%NULL%1,                   Stefanos%Tyrovolas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yueling%Ma%NULL%1,                    Yadong%Zhao%NULL%1,                    Jiangtao%Liu%NULL%1,                    Xiaotao%He%NULL%1,                    Bo%Wang%NULL%0,                    Shihua%Fu%NULL%1,                    Jun%Yan%NULL%1,                    Jingping%Niu%NULL%1,                    Ji%Zhou%NULL%1,                    Bin%Luo%luob@lzu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Marcos Felipe Falcão%Sobral%NULL%1,                    Gisleia Benini%Duarte%NULL%1,                    Ana Iza Gomes%da Penha Sobral%NULL%1,                    Marcelo Luiz Monteiro%Marinho%NULL%1,                    André%de Souza Melo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dai%Su%NULL%1,                    Yingchun%Chen%NULL%1,                    Kevin%He%NULL%1,                    Tao%Zhang%NULL%0,                    Min%Tan%NULL%1,                    Yunfan%Zhang%NULL%1,                    Xingyu%Zhang%NULL%1,                     D.%Su%null%1,                     Y.% Chen%null%1,                     K.% He%null%1,                     T.% Zhang%null%1,                     M.% Tan%null%1,                     Y.% Zhang%null%1,                     X. % Zhang%null%1,                  D.%Su%null%1,                  Y.% Chen%null%1,                  K.% He%null%1,                  T.% Zhang%null%1,                  M.% Tan%null%1,                  Y.% Zhang%null%1,                  X. % Zhang%null%1,  D.%Su%null%1,  Y.% Chen%null%0,  K.% He%null%1,  T.% Zhang%null%1,  M.% Tan%null%1,  Y.% Zhang%null%0,  X. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Yu%Wu%NULL%1,                    Wenzhan%Jing%NULL%1,                    Jue%Liu%NULL%1,                    Qiuyue%Ma%NULL%1,                    Jie%Yuan%NULL%1,                    Yaping%Wang%NULL%1,                    Min%Du%NULL%1,                    Min%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yasir%Rehman%NULL%1,                    Nadia%Rehman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cui%Guo%NULL%1,                    Yacong%Bo%NULL%1,                    Changqing%Lin%NULL%1,                    Hao Bi%Li%NULL%1,                    Yiqian%Zeng%NULL%1,                    Yumiao%Zhang%NULL%1,                    Md Shakhaoat%Hossain%NULL%1,                    Jimmy W.M.%Chan%NULL%1,                    David W.%Yeung%NULL%1,                    Kin-on%Kwok%NULL%1,                    Samuel Y.S.%Wong%NULL%1,                    Alexis K.H.%Lau%NULL%1,                    Xiang Qian%Lao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abu Reza Md. Towfiqul%Islam%towfiq_dm@brur.ac.bd%1,                    Md.%Hasanuzzaman%NULL%2,                    Md.%Hasanuzzaman%NULL%0,                    Mashura%Shammi%NULL%1,                    Roquia%Salam%NULL%1,                    Md.%Bodrud-Doza%NULL%1,                    Md. Mostafizur%Rahman%rahmanmm@juniv.edu%1,                    Md. Abdul%Mannan%NULL%1,                    Saleemul%Huq%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Jiang%yjiang1@vt.edu%1,                    Jing%Xu%xujingjingalpha@sohu.com%0]</t>
+  </si>
+  <si>
+    <t>[Yeran%Sun%NULL%1,                    Xuke%Hu%NULL%1,                    Jing%Xie%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ploutarchos%Tzampoglou%NULL%1,                    Dimitrios%Loukidis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel%Fernández%NULL%1,                    Iago%Giné-Vázquez%NULL%1,                    Ivy%Liu%NULL%1,                    Recai%Yucel%NULL%1,                    Marta%Nai Ruscone%NULL%1,                    Marianthi%Morena%NULL%1,                    Víctor Gerardo%García%NULL%1,                    Josep Maria%Haro%NULL%1,                    William%Pan%NULL%1,                    Stefanos%Tyrovolas%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1354,7 +1387,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -1383,7 +1416,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -1412,7 +1445,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1441,7 +1474,7 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="F5" t="s">
         <v>45</v>
@@ -1470,7 +1503,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1499,7 +1532,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1528,7 +1561,7 @@
         <v>203</v>
       </c>
       <c r="E8" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1557,7 +1590,7 @@
         <v>205</v>
       </c>
       <c r="E9" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -1586,7 +1619,7 @@
         <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -1615,7 +1648,7 @@
         <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="F11" t="s">
         <v>75</v>
@@ -1644,7 +1677,7 @@
         <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="F12" t="s">
         <v>80</v>

--- a/Covid_19_Dataset_and_References/References/104.xlsx
+++ b/Covid_19_Dataset_and_References/References/104.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="358">
   <si>
     <t>Doi</t>
   </si>
@@ -1039,6 +1039,177 @@
   </si>
   <si>
     <t>[Daniel%Fernández%NULL%1,                    Iago%Giné-Vázquez%NULL%1,                    Ivy%Liu%NULL%1,                    Recai%Yucel%NULL%1,                    Marta%Nai Ruscone%NULL%1,                    Marianthi%Morena%NULL%1,                    Víctor Gerardo%García%NULL%1,                    Josep Maria%Haro%NULL%1,                    William%Pan%NULL%1,                    Stefanos%Tyrovolas%NULL%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Yueling%Ma%NULL%1,                     Yadong%Zhao%NULL%1,                     Jiangtao%Liu%NULL%1,                     Xiaotao%He%NULL%1,                     Bo%Wang%NULL%0,                     Shihua%Fu%NULL%1,                     Jun%Yan%NULL%1,                     Jingping%Niu%NULL%1,                     Ji%Zhou%NULL%1,                     Bin%Luo%luob@lzu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>[Marcos Felipe Falcão%Sobral%NULL%1,                     Gisleia Benini%Duarte%NULL%1,                     Ana Iza Gomes%da Penha Sobral%NULL%1,                     Marcelo Luiz Monteiro%Marinho%NULL%1,                     André%de Souza Melo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dai%Su%NULL%1,                     Yingchun%Chen%NULL%1,                     Kevin%He%NULL%1,                     Tao%Zhang%NULL%0,                     Min%Tan%NULL%1,                     Yunfan%Zhang%NULL%1,                     Xingyu%Zhang%NULL%1,                      D.%Su%null%1,                      Y.% Chen%null%1,                      K.% He%null%1,                      T.% Zhang%null%1,                      M.% Tan%null%1,                      Y.% Zhang%null%1,                      X. % Zhang%null%1,                   D.%Su%null%1,                   Y.% Chen%null%1,                   K.% He%null%1,                   T.% Zhang%null%1,                   M.% Tan%null%1,                   Y.% Zhang%null%1,                   X. % Zhang%null%1,   D.%Su%null%1,   Y.% Chen%null%1,   K.% He%null%1,   T.% Zhang%null%1,   M.% Tan%null%1,   Y.% Zhang%null%0,   X. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Yu%Wu%NULL%1,                     Wenzhan%Jing%NULL%1,                     Jue%Liu%NULL%1,                     Qiuyue%Ma%NULL%1,                     Jie%Yuan%NULL%1,                     Yaping%Wang%NULL%1,                     Min%Du%NULL%1,                     Min%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yasir%Rehman%NULL%1,                     Nadia%Rehman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cui%Guo%NULL%1,                     Yacong%Bo%NULL%1,                     Changqing%Lin%NULL%1,                     Hao Bi%Li%NULL%1,                     Yiqian%Zeng%NULL%1,                     Yumiao%Zhang%NULL%1,                     Md Shakhaoat%Hossain%NULL%1,                     Jimmy W.M.%Chan%NULL%1,                     David W.%Yeung%NULL%1,                     Kin-on%Kwok%NULL%1,                     Samuel Y.S.%Wong%NULL%1,                     Alexis K.H.%Lau%NULL%1,                     Xiang Qian%Lao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abu Reza Md. Towfiqul%Islam%towfiq_dm@brur.ac.bd%1,                     Md.%Hasanuzzaman%NULL%2,                     Md.%Hasanuzzaman%NULL%0,                     Mashura%Shammi%NULL%1,                     Roquia%Salam%NULL%1,                     Md.%Bodrud-Doza%NULL%1,                     Md. Mostafizur%Rahman%rahmanmm@juniv.edu%1,                     Md. Abdul%Mannan%NULL%1,                     Saleemul%Huq%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Jiang%yjiang1@vt.edu%1,                     Jing%Xu%xujingjingalpha@sohu.com%0]</t>
+  </si>
+  <si>
+    <t>[Yeran%Sun%NULL%1,                     Xuke%Hu%NULL%1,                     Jing%Xie%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ploutarchos%Tzampoglou%NULL%1,                     Dimitrios%Loukidis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel%Fernández%NULL%1,                     Iago%Giné-Vázquez%NULL%1,                     Ivy%Liu%NULL%1,                     Recai%Yucel%NULL%1,                     Marta%Nai Ruscone%NULL%1,                     Marianthi%Morena%NULL%1,                     Víctor Gerardo%García%NULL%1,                     Josep Maria%Haro%NULL%1,                     William%Pan%NULL%1,                     Stefanos%Tyrovolas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yueling%Ma%NULL%1,                      Yadong%Zhao%NULL%1,                      Jiangtao%Liu%NULL%1,                      Xiaotao%He%NULL%1,                      Bo%Wang%NULL%0,                      Shihua%Fu%NULL%1,                      Jun%Yan%NULL%1,                      Jingping%Niu%NULL%1,                      Ji%Zhou%NULL%1,                      Bin%Luo%luob@lzu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Marcos Felipe Falcão%Sobral%NULL%1,                      Gisleia Benini%Duarte%NULL%1,                      Ana Iza Gomes%da Penha Sobral%NULL%1,                      Marcelo Luiz Monteiro%Marinho%NULL%1,                      André%de Souza Melo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dai%Su%NULL%1,                      Yingchun%Chen%NULL%1,                      Kevin%He%NULL%1,                      Tao%Zhang%NULL%0,                      Min%Tan%NULL%1,                      Yunfan%Zhang%NULL%1,                      Xingyu%Zhang%NULL%1,                       D.%Su%null%1,                       Y.% Chen%null%1,                       K.% He%null%1,                       T.% Zhang%null%1,                       M.% Tan%null%1,                       Y.% Zhang%null%1,                       X. % Zhang%null%1,                    D.%Su%null%1,                    Y.% Chen%null%1,                    K.% He%null%1,                    T.% Zhang%null%1,                    M.% Tan%null%1,                    Y.% Zhang%null%1,                    X. % Zhang%null%1,    D.%Su%null%1,    Y.% Chen%null%1,    K.% He%null%1,    T.% Zhang%null%1,    M.% Tan%null%1,    Y.% Zhang%null%0,    X. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Yu%Wu%NULL%1,                      Wenzhan%Jing%NULL%1,                      Jue%Liu%NULL%1,                      Qiuyue%Ma%NULL%1,                      Jie%Yuan%NULL%1,                      Yaping%Wang%NULL%1,                      Min%Du%NULL%1,                      Min%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yasir%Rehman%NULL%1,                      Nadia%Rehman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cui%Guo%NULL%1,                      Yacong%Bo%NULL%1,                      Changqing%Lin%NULL%1,                      Hao Bi%Li%NULL%1,                      Yiqian%Zeng%NULL%1,                      Yumiao%Zhang%NULL%1,                      Md Shakhaoat%Hossain%NULL%1,                      Jimmy W.M.%Chan%NULL%1,                      David W.%Yeung%NULL%1,                      Kin-on%Kwok%NULL%1,                      Samuel Y.S.%Wong%NULL%1,                      Alexis K.H.%Lau%NULL%1,                      Xiang Qian%Lao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abu Reza Md. Towfiqul%Islam%towfiq_dm@brur.ac.bd%1,                      Md.%Hasanuzzaman%NULL%2,                      Md.%Hasanuzzaman%NULL%0,                      Mashura%Shammi%NULL%1,                      Roquia%Salam%NULL%1,                      Md.%Bodrud-Doza%NULL%1,                      Md. Mostafizur%Rahman%rahmanmm@juniv.edu%1,                      Md. Abdul%Mannan%NULL%1,                      Saleemul%Huq%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Jiang%yjiang1@vt.edu%1,                      Jing%Xu%xujingjingalpha@sohu.com%0]</t>
+  </si>
+  <si>
+    <t>[Yeran%Sun%NULL%1,                      Xuke%Hu%NULL%1,                      Jing%Xie%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ploutarchos%Tzampoglou%NULL%1,                      Dimitrios%Loukidis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel%Fernández%NULL%1,                      Iago%Giné-Vázquez%NULL%1,                      Ivy%Liu%NULL%1,                      Recai%Yucel%NULL%1,                      Marta%Nai Ruscone%NULL%1,                      Marianthi%Morena%NULL%1,                      Víctor Gerardo%García%NULL%1,                      Josep Maria%Haro%NULL%1,                      William%Pan%NULL%1,                      Stefanos%Tyrovolas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yueling%Ma%NULL%1,                       Yadong%Zhao%NULL%1,                       Jiangtao%Liu%NULL%1,                       Xiaotao%He%NULL%1,                       Bo%Wang%NULL%0,                       Shihua%Fu%NULL%1,                       Jun%Yan%NULL%1,                       Jingping%Niu%NULL%1,                       Ji%Zhou%NULL%1,                       Bin%Luo%luob@lzu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Marcos Felipe Falcão%Sobral%NULL%1,                       Gisleia Benini%Duarte%NULL%1,                       Ana Iza Gomes%da Penha Sobral%NULL%1,                       Marcelo Luiz Monteiro%Marinho%NULL%1,                       André%de Souza Melo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dai%Su%NULL%1,                       Yingchun%Chen%NULL%1,                       Kevin%He%NULL%1,                       Tao%Zhang%NULL%0,                       Min%Tan%NULL%1,                       Yunfan%Zhang%NULL%1,                       Xingyu%Zhang%NULL%1,                        D.%Su%null%1,                        Y.% Chen%null%1,                        K.% He%null%1,                        T.% Zhang%null%1,                        M.% Tan%null%1,                        Y.% Zhang%null%1,                        X. % Zhang%null%1,                     D.%Su%null%1,                     Y.% Chen%null%1,                     K.% He%null%1,                     T.% Zhang%null%1,                     M.% Tan%null%1,                     Y.% Zhang%null%1,                     X. % Zhang%null%1,     D.%Su%null%1,     Y.% Chen%null%1,     K.% He%null%1,     T.% Zhang%null%1,     M.% Tan%null%1,     Y.% Zhang%null%0,     X. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Yu%Wu%NULL%1,                       Wenzhan%Jing%NULL%1,                       Jue%Liu%NULL%1,                       Qiuyue%Ma%NULL%1,                       Jie%Yuan%NULL%1,                       Yaping%Wang%NULL%1,                       Min%Du%NULL%1,                       Min%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yasir%Rehman%NULL%1,                       Nadia%Rehman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cui%Guo%NULL%1,                       Yacong%Bo%NULL%1,                       Changqing%Lin%NULL%1,                       Hao Bi%Li%NULL%1,                       Yiqian%Zeng%NULL%1,                       Yumiao%Zhang%NULL%1,                       Md Shakhaoat%Hossain%NULL%1,                       Jimmy W.M.%Chan%NULL%1,                       David W.%Yeung%NULL%1,                       Kin-on%Kwok%NULL%1,                       Samuel Y.S.%Wong%NULL%1,                       Alexis K.H.%Lau%NULL%1,                       Xiang Qian%Lao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abu Reza Md. Towfiqul%Islam%towfiq_dm@brur.ac.bd%1,                       Md.%Hasanuzzaman%NULL%2,                       Md.%Hasanuzzaman%NULL%0,                       Mashura%Shammi%NULL%1,                       Roquia%Salam%NULL%1,                       Md.%Bodrud-Doza%NULL%1,                       Md. Mostafizur%Rahman%rahmanmm@juniv.edu%1,                       Md. Abdul%Mannan%NULL%1,                       Saleemul%Huq%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Jiang%yjiang1@vt.edu%1,                       Jing%Xu%xujingjingalpha@sohu.com%0]</t>
+  </si>
+  <si>
+    <t>[Yeran%Sun%NULL%1,                       Xuke%Hu%NULL%1,                       Jing%Xie%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ploutarchos%Tzampoglou%NULL%1,                       Dimitrios%Loukidis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel%Fernández%NULL%1,                       Iago%Giné-Vázquez%NULL%1,                       Ivy%Liu%NULL%1,                       Recai%Yucel%NULL%1,                       Marta%Nai Ruscone%NULL%1,                       Marianthi%Morena%NULL%1,                       Víctor Gerardo%García%NULL%1,                       Josep Maria%Haro%NULL%1,                       William%Pan%NULL%1,                       Stefanos%Tyrovolas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yueling%Ma%NULL%1,                        Yadong%Zhao%NULL%1,                        Jiangtao%Liu%NULL%1,                        Xiaotao%He%NULL%1,                        Bo%Wang%NULL%0,                        Shihua%Fu%NULL%1,                        Jun%Yan%NULL%1,                        Jingping%Niu%NULL%1,                        Ji%Zhou%NULL%1,                        Bin%Luo%luob@lzu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Marcos Felipe Falcão%Sobral%NULL%1,                        Gisleia Benini%Duarte%NULL%1,                        Ana Iza Gomes%da Penha Sobral%NULL%1,                        Marcelo Luiz Monteiro%Marinho%NULL%1,                        André%de Souza Melo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dai%Su%NULL%1,                        Yingchun%Chen%NULL%1,                        Kevin%He%NULL%1,                        Tao%Zhang%NULL%0,                        Min%Tan%NULL%1,                        Yunfan%Zhang%NULL%1,                        Xingyu%Zhang%NULL%1,                         D.%Su%null%1,                         Y.% Chen%null%1,                         K.% He%null%1,                         T.% Zhang%null%1,                         M.% Tan%null%1,                         Y.% Zhang%null%1,                         X. % Zhang%null%1,                      D.%Su%null%1,                      Y.% Chen%null%1,                      K.% He%null%1,                      T.% Zhang%null%1,                      M.% Tan%null%1,                      Y.% Zhang%null%1,                      X. % Zhang%null%1,      D.%Su%null%1,      Y.% Chen%null%1,      K.% He%null%1,      T.% Zhang%null%1,      M.% Tan%null%1,      Y.% Zhang%null%0,      X. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Yu%Wu%NULL%1,                        Wenzhan%Jing%NULL%1,                        Jue%Liu%NULL%1,                        Qiuyue%Ma%NULL%1,                        Jie%Yuan%NULL%1,                        Yaping%Wang%NULL%1,                        Min%Du%NULL%1,                        Min%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yasir%Rehman%NULL%1,                        Nadia%Rehman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cui%Guo%NULL%1,                        Yacong%Bo%NULL%1,                        Changqing%Lin%NULL%1,                        Hao Bi%Li%NULL%1,                        Yiqian%Zeng%NULL%1,                        Yumiao%Zhang%NULL%1,                        Md Shakhaoat%Hossain%NULL%1,                        Jimmy W.M.%Chan%NULL%1,                        David W.%Yeung%NULL%1,                        Kin-on%Kwok%NULL%1,                        Samuel Y.S.%Wong%NULL%1,                        Alexis K.H.%Lau%NULL%1,                        Xiang Qian%Lao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abu Reza Md. Towfiqul%Islam%towfiq_dm@brur.ac.bd%1,                        Md.%Hasanuzzaman%NULL%2,                        Md.%Hasanuzzaman%NULL%0,                        Mashura%Shammi%NULL%1,                        Roquia%Salam%NULL%1,                        Md.%Bodrud-Doza%NULL%1,                        Md. Mostafizur%Rahman%rahmanmm@juniv.edu%1,                        Md. Abdul%Mannan%NULL%1,                        Saleemul%Huq%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Jiang%yjiang1@vt.edu%1,                        Jing%Xu%xujingjingalpha@sohu.com%0]</t>
+  </si>
+  <si>
+    <t>[Yeran%Sun%NULL%1,                        Xuke%Hu%NULL%1,                        Jing%Xie%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ploutarchos%Tzampoglou%NULL%1,                        Dimitrios%Loukidis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel%Fernández%NULL%1,                        Iago%Giné-Vázquez%NULL%1,                        Ivy%Liu%NULL%1,                        Recai%Yucel%NULL%1,                        Marta%Nai Ruscone%NULL%1,                        Marianthi%Morena%NULL%1,                        Víctor Gerardo%García%NULL%1,                        Josep Maria%Haro%NULL%1,                        William%Pan%NULL%1,                        Stefanos%Tyrovolas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yueling%Ma%NULL%1,                         Yadong%Zhao%NULL%1,                         Jiangtao%Liu%NULL%1,                         Xiaotao%He%NULL%1,                         Bo%Wang%NULL%0,                         Shihua%Fu%NULL%1,                         Jun%Yan%NULL%1,                         Jingping%Niu%NULL%1,                         Ji%Zhou%NULL%1,                         Bin%Luo%luob@lzu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Marcos Felipe Falcão%Sobral%NULL%1,                         Gisleia Benini%Duarte%NULL%1,                         Ana Iza Gomes%da Penha Sobral%NULL%1,                         Marcelo Luiz Monteiro%Marinho%NULL%1,                         André%de Souza Melo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dai%Su%NULL%1,                         Yingchun%Chen%NULL%1,                         Kevin%He%NULL%1,                         Tao%Zhang%NULL%0,                         Min%Tan%NULL%1,                         Yunfan%Zhang%NULL%1,                         Xingyu%Zhang%NULL%1,                          D.%Su%null%1,                          Y.% Chen%null%1,                          K.% He%null%1,                          T.% Zhang%null%1,                          M.% Tan%null%1,                          Y.% Zhang%null%1,                          X. % Zhang%null%1,                       D.%Su%null%1,                       Y.% Chen%null%1,                       K.% He%null%1,                       T.% Zhang%null%1,                       M.% Tan%null%1,                       Y.% Zhang%null%1,                       X. % Zhang%null%1,       D.%Su%null%1,       Y.% Chen%null%1,       K.% He%null%1,       T.% Zhang%null%1,       M.% Tan%null%1,       Y.% Zhang%null%0,       X. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Yu%Wu%NULL%1,                         Wenzhan%Jing%NULL%1,                         Jue%Liu%NULL%1,                         Qiuyue%Ma%NULL%1,                         Jie%Yuan%NULL%1,                         Yaping%Wang%NULL%1,                         Min%Du%NULL%1,                         Min%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yasir%Rehman%NULL%1,                         Nadia%Rehman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cui%Guo%NULL%1,                         Yacong%Bo%NULL%1,                         Changqing%Lin%NULL%1,                         Hao Bi%Li%NULL%1,                         Yiqian%Zeng%NULL%1,                         Yumiao%Zhang%NULL%1,                         Md Shakhaoat%Hossain%NULL%1,                         Jimmy W.M.%Chan%NULL%1,                         David W.%Yeung%NULL%1,                         Kin-on%Kwok%NULL%1,                         Samuel Y.S.%Wong%NULL%1,                         Alexis K.H.%Lau%NULL%1,                         Xiang Qian%Lao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abu Reza Md. Towfiqul%Islam%towfiq_dm@brur.ac.bd%1,                         Md.%Hasanuzzaman%NULL%2,                         Md.%Hasanuzzaman%NULL%0,                         Mashura%Shammi%NULL%1,                         Roquia%Salam%NULL%1,                         Md.%Bodrud-Doza%NULL%1,                         Md. Mostafizur%Rahman%rahmanmm@juniv.edu%1,                         Md. Abdul%Mannan%NULL%1,                         Saleemul%Huq%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Jiang%yjiang1@vt.edu%1,                         Jing%Xu%xujingjingalpha@sohu.com%0]</t>
+  </si>
+  <si>
+    <t>[Yeran%Sun%NULL%1,                         Xuke%Hu%NULL%1,                         Jing%Xie%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ploutarchos%Tzampoglou%NULL%1,                         Dimitrios%Loukidis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel%Fernández%NULL%1,                         Iago%Giné-Vázquez%NULL%1,                         Ivy%Liu%NULL%1,                         Recai%Yucel%NULL%1,                         Marta%Nai Ruscone%NULL%1,                         Marianthi%Morena%NULL%1,                         Víctor Gerardo%García%NULL%1,                         Josep Maria%Haro%NULL%1,                         William%Pan%NULL%1,                         Stefanos%Tyrovolas%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1372,6 +1543,9 @@
       <c r="I1" t="s">
         <v>104</v>
       </c>
+      <c r="J1" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1387,7 +1561,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>290</v>
+        <v>347</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -1400,6 +1574,9 @@
       </c>
       <c r="I2" t="s">
         <v>277</v>
+      </c>
+      <c r="J2" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="3">
@@ -1416,7 +1593,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>291</v>
+        <v>348</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -1429,6 +1606,9 @@
       </c>
       <c r="I3" t="s">
         <v>277</v>
+      </c>
+      <c r="J3" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="4">
@@ -1445,7 +1625,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>292</v>
+        <v>349</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1458,6 +1638,9 @@
       </c>
       <c r="I4" t="s">
         <v>280</v>
+      </c>
+      <c r="J4" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="5">
@@ -1474,7 +1657,7 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="F5" t="s">
         <v>45</v>
@@ -1487,6 +1670,9 @@
       </c>
       <c r="I5" t="s">
         <v>277</v>
+      </c>
+      <c r="J5" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="6">
@@ -1503,7 +1689,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>294</v>
+        <v>351</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1516,6 +1702,9 @@
       </c>
       <c r="I6" t="s">
         <v>280</v>
+      </c>
+      <c r="J6" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="7">
@@ -1532,7 +1721,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>295</v>
+        <v>352</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1545,6 +1734,9 @@
       </c>
       <c r="I7" t="s">
         <v>277</v>
+      </c>
+      <c r="J7" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="8">
@@ -1561,7 +1753,7 @@
         <v>203</v>
       </c>
       <c r="E8" t="s">
-        <v>296</v>
+        <v>353</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1574,6 +1766,9 @@
       </c>
       <c r="I8" t="s">
         <v>285</v>
+      </c>
+      <c r="J8" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="9">
@@ -1590,7 +1785,7 @@
         <v>205</v>
       </c>
       <c r="E9" t="s">
-        <v>297</v>
+        <v>354</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -1603,6 +1798,9 @@
       </c>
       <c r="I9" t="s">
         <v>285</v>
+      </c>
+      <c r="J9" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="10">
@@ -1619,7 +1817,7 @@
         <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>298</v>
+        <v>355</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -1632,6 +1830,9 @@
       </c>
       <c r="I10" t="s">
         <v>277</v>
+      </c>
+      <c r="J10" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="11">
@@ -1648,7 +1849,7 @@
         <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>299</v>
+        <v>356</v>
       </c>
       <c r="F11" t="s">
         <v>75</v>
@@ -1661,6 +1862,9 @@
       </c>
       <c r="I11" t="s">
         <v>280</v>
+      </c>
+      <c r="J11" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="12">
@@ -1677,7 +1881,7 @@
         <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>300</v>
+        <v>357</v>
       </c>
       <c r="F12" t="s">
         <v>80</v>
@@ -1690,6 +1894,9 @@
       </c>
       <c r="I12" t="s">
         <v>277</v>
+      </c>
+      <c r="J12" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/104.xlsx
+++ b/Covid_19_Dataset_and_References/References/104.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2427" uniqueCount="380">
   <si>
     <t>Doi</t>
   </si>
@@ -1210,6 +1210,72 @@
   </si>
   <si>
     <t>[Daniel%Fernández%NULL%1,                         Iago%Giné-Vázquez%NULL%1,                         Ivy%Liu%NULL%1,                         Recai%Yucel%NULL%1,                         Marta%Nai Ruscone%NULL%1,                         Marianthi%Morena%NULL%1,                         Víctor Gerardo%García%NULL%1,                         Josep Maria%Haro%NULL%1,                         William%Pan%NULL%1,                         Stefanos%Tyrovolas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yueling%Ma%NULL%1,                          Yadong%Zhao%NULL%1,                          Jiangtao%Liu%NULL%1,                          Xiaotao%He%NULL%1,                          Bo%Wang%NULL%0,                          Shihua%Fu%NULL%1,                          Jun%Yan%NULL%1,                          Jingping%Niu%NULL%1,                          Ji%Zhou%NULL%1,                          Bin%Luo%luob@lzu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Marcos Felipe Falcão%Sobral%NULL%1,                          Gisleia Benini%Duarte%NULL%1,                          Ana Iza Gomes%da Penha Sobral%NULL%1,                          Marcelo Luiz Monteiro%Marinho%NULL%1,                          André%de Souza Melo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dai%Su%NULL%1,                          Yingchun%Chen%NULL%1,                          Kevin%He%NULL%1,                          Tao%Zhang%NULL%0,                          Min%Tan%NULL%1,                          Yunfan%Zhang%NULL%1,                          Xingyu%Zhang%NULL%1,                           D.%Su%null%1,                           Y.% Chen%null%1,                           K.% He%null%1,                           T.% Zhang%null%1,                           M.% Tan%null%1,                           Y.% Zhang%null%1,                           X. % Zhang%null%1,                        D.%Su%null%1,                        Y.% Chen%null%1,                        K.% He%null%1,                        T.% Zhang%null%1,                        M.% Tan%null%1,                        Y.% Zhang%null%1,                        X. % Zhang%null%1,        D.%Su%null%1,        Y.% Chen%null%1,        K.% He%null%1,        T.% Zhang%null%1,        M.% Tan%null%1,        Y.% Zhang%null%0,        X. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Yu%Wu%NULL%1,                          Wenzhan%Jing%NULL%1,                          Jue%Liu%NULL%1,                          Qiuyue%Ma%NULL%1,                          Jie%Yuan%NULL%1,                          Yaping%Wang%NULL%1,                          Min%Du%NULL%1,                          Min%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yasir%Rehman%NULL%1,                          Nadia%Rehman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cui%Guo%NULL%1,                          Yacong%Bo%NULL%1,                          Changqing%Lin%NULL%1,                          Hao Bi%Li%NULL%1,                          Yiqian%Zeng%NULL%1,                          Yumiao%Zhang%NULL%1,                          Md Shakhaoat%Hossain%NULL%1,                          Jimmy W.M.%Chan%NULL%1,                          David W.%Yeung%NULL%1,                          Kin-on%Kwok%NULL%1,                          Samuel Y.S.%Wong%NULL%1,                          Alexis K.H.%Lau%NULL%1,                          Xiang Qian%Lao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abu Reza Md. Towfiqul%Islam%towfiq_dm@brur.ac.bd%1,                          Md.%Hasanuzzaman%NULL%2,                          Md.%Hasanuzzaman%NULL%0,                          Mashura%Shammi%NULL%1,                          Roquia%Salam%NULL%1,                          Md.%Bodrud-Doza%NULL%1,                          Md. Mostafizur%Rahman%rahmanmm@juniv.edu%1,                          Md. Abdul%Mannan%NULL%1,                          Saleemul%Huq%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Jiang%yjiang1@vt.edu%1,                          Jing%Xu%xujingjingalpha@sohu.com%0]</t>
+  </si>
+  <si>
+    <t>[Yeran%Sun%NULL%1,                          Xuke%Hu%NULL%1,                          Jing%Xie%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ploutarchos%Tzampoglou%NULL%1,                          Dimitrios%Loukidis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel%Fernández%NULL%1,                          Iago%Giné-Vázquez%NULL%1,                          Ivy%Liu%NULL%1,                          Recai%Yucel%NULL%1,                          Marta%Nai Ruscone%NULL%1,                          Marianthi%Morena%NULL%1,                          Víctor Gerardo%García%NULL%1,                          Josep Maria%Haro%NULL%1,                          William%Pan%NULL%1,                          Stefanos%Tyrovolas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yueling%Ma%NULL%1,                           Yadong%Zhao%NULL%1,                           Jiangtao%Liu%NULL%1,                           Xiaotao%He%NULL%1,                           Bo%Wang%NULL%0,                           Shihua%Fu%NULL%1,                           Jun%Yan%NULL%1,                           Jingping%Niu%NULL%1,                           Ji%Zhou%NULL%1,                           Bin%Luo%luob@lzu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Marcos Felipe Falcão%Sobral%NULL%1,                           Gisleia Benini%Duarte%NULL%1,                           Ana Iza Gomes%da Penha Sobral%NULL%1,                           Marcelo Luiz Monteiro%Marinho%NULL%1,                           André%de Souza Melo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dai%Su%NULL%1,                           Yingchun%Chen%NULL%1,                           Kevin%He%NULL%1,                           Tao%Zhang%NULL%0,                           Min%Tan%NULL%1,                           Yunfan%Zhang%NULL%1,                           Xingyu%Zhang%NULL%1,                            D.%Su%null%1,                            Y.% Chen%null%1,                            K.% He%null%1,                            T.% Zhang%null%1,                            M.% Tan%null%1,                            Y.% Zhang%null%1,                            X. % Zhang%null%1,                         D.%Su%null%1,                         Y.% Chen%null%1,                         K.% He%null%1,                         T.% Zhang%null%1,                         M.% Tan%null%1,                         Y.% Zhang%null%1,                         X. % Zhang%null%1,         D.%Su%null%1,         Y.% Chen%null%1,         K.% He%null%1,         T.% Zhang%null%1,         M.% Tan%null%1,         Y.% Zhang%null%0,         X. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Yu%Wu%NULL%1,                           Wenzhan%Jing%NULL%1,                           Jue%Liu%NULL%1,                           Qiuyue%Ma%NULL%1,                           Jie%Yuan%NULL%1,                           Yaping%Wang%NULL%1,                           Min%Du%NULL%1,                           Min%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yasir%Rehman%NULL%1,                           Nadia%Rehman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cui%Guo%NULL%1,                           Yacong%Bo%NULL%1,                           Changqing%Lin%NULL%1,                           Hao Bi%Li%NULL%1,                           Yiqian%Zeng%NULL%1,                           Yumiao%Zhang%NULL%1,                           Md Shakhaoat%Hossain%NULL%1,                           Jimmy W.M.%Chan%NULL%1,                           David W.%Yeung%NULL%1,                           Kin-on%Kwok%NULL%1,                           Samuel Y.S.%Wong%NULL%1,                           Alexis K.H.%Lau%NULL%1,                           Xiang Qian%Lao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abu Reza Md. Towfiqul%Islam%towfiq_dm@brur.ac.bd%1,                           Md.%Hasanuzzaman%NULL%2,                           Md.%Hasanuzzaman%NULL%0,                           Mashura%Shammi%NULL%1,                           Roquia%Salam%NULL%1,                           Md.%Bodrud-Doza%NULL%1,                           Md. Mostafizur%Rahman%rahmanmm@juniv.edu%1,                           Md. Abdul%Mannan%NULL%1,                           Saleemul%Huq%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Jiang%yjiang1@vt.edu%1,                           Jing%Xu%xujingjingalpha@sohu.com%0]</t>
+  </si>
+  <si>
+    <t>[Yeran%Sun%NULL%1,                           Xuke%Hu%NULL%1,                           Jing%Xie%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ploutarchos%Tzampoglou%NULL%1,                           Dimitrios%Loukidis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel%Fernández%NULL%1,                           Iago%Giné-Vázquez%NULL%1,                           Ivy%Liu%NULL%1,                           Recai%Yucel%NULL%1,                           Marta%Nai Ruscone%NULL%1,                           Marianthi%Morena%NULL%1,                           Víctor Gerardo%García%NULL%1,                           Josep Maria%Haro%NULL%1,                           William%Pan%NULL%1,                           Stefanos%Tyrovolas%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1561,7 +1627,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -1593,7 +1659,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -1625,7 +1691,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1657,7 +1723,7 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="F5" t="s">
         <v>45</v>
@@ -1689,7 +1755,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1721,7 +1787,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1753,7 +1819,7 @@
         <v>203</v>
       </c>
       <c r="E8" t="s">
-        <v>353</v>
+        <v>375</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1785,7 +1851,7 @@
         <v>205</v>
       </c>
       <c r="E9" t="s">
-        <v>354</v>
+        <v>376</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -1817,7 +1883,7 @@
         <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -1849,7 +1915,7 @@
         <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="F11" t="s">
         <v>75</v>
@@ -1881,7 +1947,7 @@
         <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="F12" t="s">
         <v>80</v>
